--- a/result_regression.xlsx
+++ b/result_regression.xlsx
@@ -522,22 +522,22 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>11.5328495171481</v>
+        <v>11.6126036895897</v>
       </c>
       <c r="D2">
-        <v>0.04358105809255339</v>
+        <v>0.04250394951438167</v>
       </c>
       <c r="E2">
-        <v>264.6298649439788</v>
+        <v>273.2123443178015</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>11.44731523522418</v>
+        <v>11.52918339279648</v>
       </c>
       <c r="H2">
-        <v>11.61838379907202</v>
+        <v>11.69602398638291</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -548,22 +548,22 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.1064881094800662</v>
+        <v>-0.1068663278366101</v>
       </c>
       <c r="D3">
-        <v>0.01212600986980465</v>
+        <v>0.01167522650428014</v>
       </c>
       <c r="E3">
-        <v>-8.781793073188528</v>
+        <v>-9.153255210717576</v>
       </c>
       <c r="F3">
-        <v>8.211236918339059E-18</v>
+        <v>3.734270657271541E-19</v>
       </c>
       <c r="G3">
-        <v>-0.1302872000072715</v>
+        <v>-0.1297806892369663</v>
       </c>
       <c r="H3">
-        <v>-0.08268901895286086</v>
+        <v>-0.08395196643625391</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -574,22 +574,22 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.02813972915713762</v>
+        <v>-0.04802493060300007</v>
       </c>
       <c r="D4">
-        <v>0.03588810192144063</v>
+        <v>0.03452699751064095</v>
       </c>
       <c r="E4">
-        <v>-0.7840963341760379</v>
+        <v>-1.390938513787628</v>
       </c>
       <c r="F4">
-        <v>0.4331933940342921</v>
+        <v>0.1645936742278773</v>
       </c>
       <c r="G4">
-        <v>-0.09857544508087016</v>
+        <v>-0.115789277507789</v>
       </c>
       <c r="H4">
-        <v>0.04229598676659491</v>
+        <v>0.01973941630178889</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -600,22 +600,22 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.06424208967240325</v>
+        <v>-0.08700411812512376</v>
       </c>
       <c r="D5">
-        <v>0.04926332511584048</v>
+        <v>0.04740692265037461</v>
       </c>
       <c r="E5">
-        <v>-1.304055086036943</v>
+        <v>-1.835261882885289</v>
       </c>
       <c r="F5">
-        <v>0.192553868436321</v>
+        <v>0.06680233612723754</v>
       </c>
       <c r="G5">
-        <v>-0.1609286623118104</v>
+        <v>-0.1800472259475869</v>
       </c>
       <c r="H5">
-        <v>0.03244448296700393</v>
+        <v>0.006038989697339389</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -626,22 +626,22 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>-0.06374228915396518</v>
+        <v>-0.01258219199559615</v>
       </c>
       <c r="D6">
-        <v>0.02227960508488989</v>
+        <v>0.02144074276125131</v>
       </c>
       <c r="E6">
-        <v>-2.861015215983134</v>
+        <v>-0.5868356397771474</v>
       </c>
       <c r="F6">
-        <v>0.004322322957274524</v>
+        <v>0.5574637600307581</v>
       </c>
       <c r="G6">
-        <v>-0.1074693142857879</v>
+        <v>-0.05466282556131523</v>
       </c>
       <c r="H6">
-        <v>-0.02001526402214242</v>
+        <v>0.02949844157012292</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -652,22 +652,22 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>-0.064343692680285</v>
+        <v>0.03159363068831256</v>
       </c>
       <c r="D7">
-        <v>0.02161327871754088</v>
+        <v>0.02078022592144993</v>
       </c>
       <c r="E7">
-        <v>-2.977044506813536</v>
+        <v>1.520369932826415</v>
       </c>
       <c r="F7">
-        <v>0.002989716955923094</v>
+        <v>0.1287752015268137</v>
       </c>
       <c r="G7">
-        <v>-0.1067629536170042</v>
+        <v>-0.009190640740647855</v>
       </c>
       <c r="H7">
-        <v>-0.0219244317435658</v>
+        <v>0.07237790211727299</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -678,22 +678,22 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>0.0009023136107403013</v>
+        <v>-0.01316119509432687</v>
       </c>
       <c r="D8">
-        <v>0.01810533051789506</v>
+        <v>0.01742339200228827</v>
       </c>
       <c r="E8">
-        <v>0.0498369035488453</v>
+        <v>-0.7553750206962208</v>
       </c>
       <c r="F8">
-        <v>0.9602636035549882</v>
+        <v>0.4502249808212021</v>
       </c>
       <c r="G8">
-        <v>-0.03463207937151607</v>
+        <v>-0.04735718272798397</v>
       </c>
       <c r="H8">
-        <v>0.03643670659299667</v>
+        <v>0.02103479253933024</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -704,22 +704,22 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>0.03346670795413603</v>
+        <v>0.03541967514512007</v>
       </c>
       <c r="D9">
-        <v>0.034411398493773</v>
+        <v>0.0331562942902704</v>
       </c>
       <c r="E9">
-        <v>0.9725471622489298</v>
+        <v>1.068263987375509</v>
       </c>
       <c r="F9">
-        <v>0.3310441485152211</v>
+        <v>0.2856927457678016</v>
       </c>
       <c r="G9">
-        <v>-0.03407075875701669</v>
+        <v>-0.02965446365512477</v>
       </c>
       <c r="H9">
-        <v>0.1010041746652888</v>
+        <v>0.1004938139453649</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -730,22 +730,22 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>-0.4657916972504497</v>
+        <v>-0.4685579478996691</v>
       </c>
       <c r="D10">
-        <v>0.0179267204937751</v>
+        <v>0.01727716678568682</v>
       </c>
       <c r="E10">
-        <v>-25.98309587145021</v>
+        <v>-27.12006856864074</v>
       </c>
       <c r="F10">
-        <v>4.564764083256764E-111</v>
+        <v>2.250164363465598E-118</v>
       </c>
       <c r="G10">
-        <v>-0.5009755416038713</v>
+        <v>-0.5024669468862261</v>
       </c>
       <c r="H10">
-        <v>-0.4306078528970281</v>
+        <v>-0.4346489489131121</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -756,22 +756,22 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>-0.1774998338453865</v>
+        <v>-0.1826326294594428</v>
       </c>
       <c r="D11">
-        <v>0.0175147559820716</v>
+        <v>0.01688228974400436</v>
       </c>
       <c r="E11">
-        <v>-10.13430241489395</v>
+        <v>-10.81800112596123</v>
       </c>
       <c r="F11">
-        <v>6.542744588907871E-23</v>
+        <v>1.056457527642342E-25</v>
       </c>
       <c r="G11">
-        <v>-0.2118751368226014</v>
+        <v>-0.2157666237607804</v>
       </c>
       <c r="H11">
-        <v>-0.1431245308681716</v>
+        <v>-0.1494986351581053</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -782,22 +782,22 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>0.1712245417641928</v>
+        <v>0.1655723347394336</v>
       </c>
       <c r="D12">
-        <v>0.01870770987164439</v>
+        <v>0.01801130028429717</v>
       </c>
       <c r="E12">
-        <v>9.15261905059373</v>
+        <v>9.192691928177164</v>
       </c>
       <c r="F12">
-        <v>3.754419426365216E-19</v>
+        <v>2.673475524545195E-19</v>
       </c>
       <c r="G12">
-        <v>0.1345078900731341</v>
+        <v>0.1302224900187833</v>
       </c>
       <c r="H12">
-        <v>0.2079411934552516</v>
+        <v>0.2009221794600839</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -808,22 +808,22 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>0.3471955926087893</v>
+        <v>0.3327388992973073</v>
       </c>
       <c r="D13">
-        <v>0.0189683799394157</v>
+        <v>0.01822927010726629</v>
       </c>
       <c r="E13">
-        <v>18.30391386706293</v>
+        <v>18.25300175703007</v>
       </c>
       <c r="F13">
-        <v>1.02479364692152E-63</v>
+        <v>2.017898405074285E-63</v>
       </c>
       <c r="G13">
-        <v>0.3099673372981368</v>
+        <v>0.2969612565124349</v>
       </c>
       <c r="H13">
-        <v>0.3844238479194418</v>
+        <v>0.3685165420821798</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -834,22 +834,22 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>-0.004424008997485029</v>
+        <v>0.01290442388391622</v>
       </c>
       <c r="D14">
-        <v>0.01810582709289904</v>
+        <v>0.01741155389458637</v>
       </c>
       <c r="E14">
-        <v>-0.2443417235117687</v>
+        <v>0.7411414260922732</v>
       </c>
       <c r="F14">
-        <v>0.807022807517229</v>
+        <v>0.4588042999444435</v>
       </c>
       <c r="G14">
-        <v>-0.03995937658174159</v>
+        <v>-0.02126832970986354</v>
       </c>
       <c r="H14">
-        <v>0.03111135858677153</v>
+        <v>0.04707717747769597</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -860,22 +860,22 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>0.007191858653081546</v>
+        <v>0.0256536556195655</v>
       </c>
       <c r="D15">
-        <v>0.01841238019993623</v>
+        <v>0.01772248699316997</v>
       </c>
       <c r="E15">
-        <v>0.3905990738289477</v>
+        <v>1.447520070374553</v>
       </c>
       <c r="F15">
-        <v>0.6961876119422745</v>
+        <v>0.1481054509071836</v>
       </c>
       <c r="G15">
-        <v>-0.02894516481172492</v>
+        <v>-0.009129350236957521</v>
       </c>
       <c r="H15">
-        <v>0.043328882117888</v>
+        <v>0.06043666147608852</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -886,22 +886,22 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>0.04539208350301005</v>
+        <v>0.04698825814016012</v>
       </c>
       <c r="D16">
-        <v>0.01823297349221342</v>
+        <v>0.01750089526785625</v>
       </c>
       <c r="E16">
-        <v>2.489560110554387</v>
+        <v>2.684905967437167</v>
       </c>
       <c r="F16">
-        <v>0.01297275835004541</v>
+        <v>0.007390720452881419</v>
       </c>
       <c r="G16">
-        <v>0.00960717227661724</v>
+        <v>0.01264015886770256</v>
       </c>
       <c r="H16">
-        <v>0.08117699472940286</v>
+        <v>0.08133635741261767</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -912,22 +912,22 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>0.01900087611885058</v>
+        <v>0.03489466935011911</v>
       </c>
       <c r="D17">
-        <v>0.01785877914829018</v>
+        <v>0.01713132538299482</v>
       </c>
       <c r="E17">
-        <v>1.063951570321633</v>
+        <v>2.036892567854489</v>
       </c>
       <c r="F17">
-        <v>0.287640846283606</v>
+        <v>0.04195795509745892</v>
       </c>
       <c r="G17">
-        <v>-0.01604962328028706</v>
+        <v>0.001271905719012777</v>
       </c>
       <c r="H17">
-        <v>0.05405137551798821</v>
+        <v>0.06851743298122545</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -938,22 +938,22 @@
         <v>23</v>
       </c>
       <c r="C18">
-        <v>-0.08800783111600154</v>
+        <v>-0.09294559155132462</v>
       </c>
       <c r="D18">
-        <v>0.07123734803523626</v>
+        <v>0.06861871645075117</v>
       </c>
       <c r="E18">
-        <v>-1.235417004468921</v>
+        <v>-1.354522444587451</v>
       </c>
       <c r="F18">
-        <v>0.2170031963594551</v>
+        <v>0.1759154612994672</v>
       </c>
       <c r="G18">
-        <v>-0.22782167862328</v>
+        <v>-0.2276199866908669</v>
       </c>
       <c r="H18">
-        <v>0.05180601639127692</v>
+        <v>0.04172880358821765</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -964,22 +964,22 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>-0.02015592863730479</v>
+        <v>-0.02795822549500611</v>
       </c>
       <c r="D19">
-        <v>0.04574607123124122</v>
+        <v>0.04401812722177209</v>
       </c>
       <c r="E19">
-        <v>-0.4406045829688598</v>
+        <v>-0.6351525441813324</v>
       </c>
       <c r="F19">
-        <v>0.6596068840468653</v>
+        <v>0.5254931081053706</v>
       </c>
       <c r="G19">
-        <v>-0.1099393695371292</v>
+        <v>-0.1143503203256094</v>
       </c>
       <c r="H19">
-        <v>0.06962751226251962</v>
+        <v>0.05843386933559723</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -990,22 +990,22 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>-0.009084801621662086</v>
+        <v>-0.009708464917109513</v>
       </c>
       <c r="D20">
-        <v>0.04315090881305055</v>
+        <v>0.04148534311961732</v>
       </c>
       <c r="E20">
-        <v>-0.2105355801663784</v>
+        <v>-0.2340215648962209</v>
       </c>
       <c r="F20">
-        <v>0.833298147857918</v>
+        <v>0.8150223614278429</v>
       </c>
       <c r="G20">
-        <v>-0.09377485186895887</v>
+        <v>-0.09112959578015516</v>
       </c>
       <c r="H20">
-        <v>0.0756052486256347</v>
+        <v>0.07171266594593613</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1016,22 +1016,22 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>0.00217277607355002</v>
+        <v>0.01084301794400081</v>
       </c>
       <c r="D21">
-        <v>0.02135103431820411</v>
+        <v>0.02056277004545779</v>
       </c>
       <c r="E21">
-        <v>0.1017644410649225</v>
+        <v>0.527313096437412</v>
       </c>
       <c r="F21">
-        <v>0.9189667023598448</v>
+        <v>0.5981083406655321</v>
       </c>
       <c r="G21">
-        <v>-0.03973179138468127</v>
+        <v>-0.02951446411780787</v>
       </c>
       <c r="H21">
-        <v>0.04407734353178131</v>
+        <v>0.05120050000580949</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1042,22 +1042,22 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>-0.06785190247870754</v>
+        <v>-0.06498736605644614</v>
       </c>
       <c r="D22">
-        <v>0.07522695669542956</v>
+        <v>0.07245785496961132</v>
       </c>
       <c r="E22">
-        <v>-0.9019626136601363</v>
+        <v>-0.8968988397973099</v>
       </c>
       <c r="F22">
-        <v>0.3673221316133437</v>
+        <v>0.3700168079239319</v>
       </c>
       <c r="G22">
-        <v>-0.2154959479399311</v>
+        <v>-0.2071966392092706</v>
       </c>
       <c r="H22">
-        <v>0.07979214298251602</v>
+        <v>0.0772219070963783</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1068,22 +1068,22 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>-0.2932194871641203</v>
+        <v>-0.2694894936026114</v>
       </c>
       <c r="D23">
-        <v>0.201375475112599</v>
+        <v>0.1937612790265174</v>
       </c>
       <c r="E23">
-        <v>-1.456083403404346</v>
+        <v>-1.390832548982762</v>
       </c>
       <c r="F23">
-        <v>0.1457242178081745</v>
+        <v>0.1646258018378661</v>
       </c>
       <c r="G23">
-        <v>-0.688448685690324</v>
+        <v>-0.6497747044617932</v>
       </c>
       <c r="H23">
-        <v>0.1020097113620833</v>
+        <v>0.1107957172565703</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1094,22 +1094,22 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>-0.4368776906772168</v>
+        <v>-0.4145750880015489</v>
       </c>
       <c r="D24">
-        <v>0.2010731895783514</v>
+        <v>0.1935145026355205</v>
       </c>
       <c r="E24">
-        <v>-2.172729699038173</v>
+        <v>-2.142346347975739</v>
       </c>
       <c r="F24">
-        <v>0.03006537730197824</v>
+        <v>0.03243789607329165</v>
       </c>
       <c r="G24">
-        <v>-0.8315136090666018</v>
+        <v>-0.7943759636397988</v>
       </c>
       <c r="H24">
-        <v>-0.04224177228783194</v>
+        <v>-0.03477421236329892</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1120,22 +1120,22 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>0.08167585108141931</v>
+        <v>0.04795059174073152</v>
       </c>
       <c r="D25">
-        <v>0.04310323461613495</v>
+        <v>0.04151338308506357</v>
       </c>
       <c r="E25">
-        <v>1.894889137875638</v>
+        <v>1.155063456102281</v>
       </c>
       <c r="F25">
-        <v>0.05843279457034951</v>
+        <v>0.2483762102828797</v>
       </c>
       <c r="G25">
-        <v>-0.002920631492719664</v>
+        <v>-0.03352557170790493</v>
       </c>
       <c r="H25">
-        <v>0.1662723336555583</v>
+        <v>0.129426755189368</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1146,22 +1146,22 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>0.006827477794300832</v>
+        <v>0.01163781714576881</v>
       </c>
       <c r="D26">
-        <v>0.02005914939232627</v>
+        <v>0.01930408159361601</v>
       </c>
       <c r="E26">
-        <v>0.3403672638737472</v>
+        <v>0.6028682115401707</v>
       </c>
       <c r="F26">
-        <v>0.7336607412734316</v>
+        <v>0.5467508161956799</v>
       </c>
       <c r="G26">
-        <v>-0.03254157413723941</v>
+        <v>-0.02624930238685176</v>
       </c>
       <c r="H26">
-        <v>0.04619652972584107</v>
+        <v>0.04952493667838939</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1172,22 +1172,22 @@
         <v>32</v>
       </c>
       <c r="C27">
-        <v>-0.02391664762170172</v>
+        <v>-0.01189157064393095</v>
       </c>
       <c r="D27">
-        <v>0.02472176097445502</v>
+        <v>0.02380161855839574</v>
       </c>
       <c r="E27">
-        <v>-0.9674330095827224</v>
+        <v>-0.4996118484444977</v>
       </c>
       <c r="F27">
-        <v>0.3335919123625505</v>
+        <v>0.6174725975351936</v>
       </c>
       <c r="G27">
-        <v>-0.07243676542962706</v>
+        <v>-0.05860577266481354</v>
       </c>
       <c r="H27">
-        <v>0.02460347018622362</v>
+        <v>0.03482263137695164</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1198,22 +1198,22 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>0.01085276696479087</v>
+        <v>0.03012174051157424</v>
       </c>
       <c r="D28">
-        <v>0.02762297992485449</v>
+        <v>0.02659375815076031</v>
       </c>
       <c r="E28">
-        <v>0.3928890725879218</v>
+        <v>1.132662045763286</v>
       </c>
       <c r="F28">
-        <v>0.6944960277194985</v>
+        <v>0.257662973135251</v>
       </c>
       <c r="G28">
-        <v>-0.04336142277455646</v>
+        <v>-0.0220724490432744</v>
       </c>
       <c r="H28">
-        <v>0.0650669567041382</v>
+        <v>0.08231593006642288</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1224,22 +1224,22 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>0.000176131862427556</v>
+        <v>0.0284792218389937</v>
       </c>
       <c r="D29">
-        <v>0.0312223639259623</v>
+        <v>0.03010200668909182</v>
       </c>
       <c r="E29">
-        <v>0.005641208425000045</v>
+        <v>0.9460904760649669</v>
       </c>
       <c r="F29">
-        <v>0.9955002620848732</v>
+        <v>0.344360675926394</v>
       </c>
       <c r="G29">
-        <v>-0.06110238213562327</v>
+        <v>-0.0306004251294759</v>
       </c>
       <c r="H29">
-        <v>0.06145464586047839</v>
+        <v>0.0875588688074633</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1250,22 +1250,22 @@
         <v>35</v>
       </c>
       <c r="C30">
-        <v>0.2056531662729949</v>
+        <v>0.1046560361464998</v>
       </c>
       <c r="D30">
-        <v>0.10549248732831</v>
+        <v>0.1014475205064919</v>
       </c>
       <c r="E30">
-        <v>1.949457932800165</v>
+        <v>1.03162734410845</v>
       </c>
       <c r="F30">
-        <v>0.05155630567519628</v>
+        <v>0.302528562512056</v>
       </c>
       <c r="G30">
-        <v>-0.001391466118266543</v>
+        <v>-0.09444974969873439</v>
       </c>
       <c r="H30">
-        <v>0.4126977986642563</v>
+        <v>0.303761821991734</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1276,22 +1276,22 @@
         <v>36</v>
       </c>
       <c r="C31">
-        <v>0.0002881435668548094</v>
+        <v>-0.0008131036012210241</v>
       </c>
       <c r="D31">
-        <v>0.0003949213537321441</v>
+        <v>0.00037747470466349</v>
       </c>
       <c r="E31">
-        <v>0.7296226555787693</v>
+        <v>-2.154061162709928</v>
       </c>
       <c r="F31">
-        <v>0.4658139327884552</v>
+        <v>0.03150475056706984</v>
       </c>
       <c r="G31">
-        <v>-0.0004869480873258407</v>
+        <v>-0.001553953622330336</v>
       </c>
       <c r="H31">
-        <v>0.00106323522103546</v>
+        <v>-7.225358011171245E-05</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1302,22 +1302,22 @@
         <v>37</v>
       </c>
       <c r="C32">
-        <v>0.0004869801918479157</v>
+        <v>0.0001711349591425465</v>
       </c>
       <c r="D32">
-        <v>0.0006669335754609414</v>
+        <v>0.0006417331251556012</v>
       </c>
       <c r="E32">
-        <v>0.7301779513969536</v>
+        <v>0.2666762123289979</v>
       </c>
       <c r="F32">
-        <v>0.4654746516261671</v>
+        <v>0.7897805933258809</v>
       </c>
       <c r="G32">
-        <v>-0.0008219757391176408</v>
+        <v>-0.001088361355297661</v>
       </c>
       <c r="H32">
-        <v>0.001795936122813472</v>
+        <v>0.001430631273582754</v>
       </c>
     </row>
   </sheetData>

--- a/result_regression.xlsx
+++ b/result_regression.xlsx
@@ -49,6 +49,48 @@
     <t>GENDER[T.U]</t>
   </si>
   <si>
+    <t>JOB_LEVEL_OR_COMP_GRADE[T.1]</t>
+  </si>
+  <si>
+    <t>JOB_LEVEL_OR_COMP_GRADE[T.2]</t>
+  </si>
+  <si>
+    <t>JOB_LEVEL_OR_COMP_GRADE[T.4]</t>
+  </si>
+  <si>
+    <t>JOB_LEVEL_OR_COMP_GRADE[T.5]</t>
+  </si>
+  <si>
+    <t>JOB_FUNCTION[T.Administration]</t>
+  </si>
+  <si>
+    <t>JOB_FUNCTION[T.Engineering]</t>
+  </si>
+  <si>
+    <t>JOB_FUNCTION[T.Management]</t>
+  </si>
+  <si>
+    <t>JOB_FUNCTION[T.Sales]</t>
+  </si>
+  <si>
+    <t>COUNTRY[T.Canada]</t>
+  </si>
+  <si>
+    <t>LOCATION[T.BC]</t>
+  </si>
+  <si>
+    <t>LOCATION[T.CA]</t>
+  </si>
+  <si>
+    <t>LOCATION[T.GA]</t>
+  </si>
+  <si>
+    <t>LOCATION[T.ON]</t>
+  </si>
+  <si>
+    <t>FULL_TIME[T.Y]</t>
+  </si>
+  <si>
     <t>ETHNICITY[T.Asian]</t>
   </si>
   <si>
@@ -61,52 +103,10 @@
     <t>ETHNICITY[T.Unknown]</t>
   </si>
   <si>
-    <t>JOB_LEVEL_OR_COMP_GRADE[T.1]</t>
-  </si>
-  <si>
-    <t>JOB_LEVEL_OR_COMP_GRADE[T.2]</t>
-  </si>
-  <si>
-    <t>JOB_LEVEL_OR_COMP_GRADE[T.4]</t>
-  </si>
-  <si>
-    <t>JOB_LEVEL_OR_COMP_GRADE[T.5]</t>
-  </si>
-  <si>
-    <t>JOB_FUNCTION[T.Administration]</t>
-  </si>
-  <si>
-    <t>JOB_FUNCTION[T.Engineering]</t>
-  </si>
-  <si>
-    <t>JOB_FUNCTION[T.Management]</t>
-  </si>
-  <si>
-    <t>JOB_FUNCTION[T.Sales]</t>
-  </si>
-  <si>
-    <t>COUNTRY[T.Canada]</t>
-  </si>
-  <si>
-    <t>LOCATION[T.BC]</t>
-  </si>
-  <si>
-    <t>LOCATION[T.CA]</t>
-  </si>
-  <si>
-    <t>LOCATION[T.GA]</t>
-  </si>
-  <si>
-    <t>LOCATION[T.ON]</t>
-  </si>
-  <si>
-    <t>FULL_TIME[T.Y]</t>
-  </si>
-  <si>
     <t>EXEMPT[T.Maybe]</t>
   </si>
   <si>
-    <t>PROMOTION[T.Y]</t>
+    <t>PROMOTION[T.Yes]</t>
   </si>
   <si>
     <t>PERFORMANCE[T.2]</t>
@@ -522,13 +522,13 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>11.6126036895897</v>
+        <v>11.61260368958969</v>
       </c>
       <c r="D2">
-        <v>0.04250394951438167</v>
+        <v>0.04250394951438174</v>
       </c>
       <c r="E2">
-        <v>273.2123443178015</v>
+        <v>273.2123443178008</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -537,7 +537,7 @@
         <v>11.52918339279648</v>
       </c>
       <c r="H2">
-        <v>11.69602398638291</v>
+        <v>11.6960239863829</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -548,22 +548,22 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.1068663278366101</v>
+        <v>-0.1068663278366113</v>
       </c>
       <c r="D3">
         <v>0.01167522650428014</v>
       </c>
       <c r="E3">
-        <v>-9.153255210717576</v>
+        <v>-9.153255210717676</v>
       </c>
       <c r="F3">
-        <v>3.734270657271541E-19</v>
+        <v>3.7342706572684E-19</v>
       </c>
       <c r="G3">
-        <v>-0.1297806892369663</v>
+        <v>-0.1297806892369675</v>
       </c>
       <c r="H3">
-        <v>-0.08395196643625391</v>
+        <v>-0.08395196643625506</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -574,22 +574,22 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.04802493060300007</v>
+        <v>-0.04802493060300515</v>
       </c>
       <c r="D4">
-        <v>0.03452699751064095</v>
+        <v>0.03452699751064092</v>
       </c>
       <c r="E4">
-        <v>-1.390938513787628</v>
+        <v>-1.390938513787777</v>
       </c>
       <c r="F4">
-        <v>0.1645936742278773</v>
+        <v>0.1645936742278324</v>
       </c>
       <c r="G4">
-        <v>-0.115789277507789</v>
+        <v>-0.1157892775077941</v>
       </c>
       <c r="H4">
-        <v>0.01973941630178889</v>
+        <v>0.01973941630178377</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -600,22 +600,22 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.08700411812512376</v>
+        <v>-0.0870041181251226</v>
       </c>
       <c r="D5">
         <v>0.04740692265037461</v>
       </c>
       <c r="E5">
-        <v>-1.835261882885289</v>
+        <v>-1.835261882885265</v>
       </c>
       <c r="F5">
-        <v>0.06680233612723754</v>
+        <v>0.06680233612724114</v>
       </c>
       <c r="G5">
-        <v>-0.1800472259475869</v>
+        <v>-0.1800472259475857</v>
       </c>
       <c r="H5">
-        <v>0.006038989697339389</v>
+        <v>0.006038989697340541</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -626,22 +626,22 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>-0.01258219199559615</v>
+        <v>-0.468557947899672</v>
       </c>
       <c r="D6">
-        <v>0.02144074276125131</v>
+        <v>0.0172771667856868</v>
       </c>
       <c r="E6">
-        <v>-0.5868356397771474</v>
+        <v>-27.12006856864096</v>
       </c>
       <c r="F6">
-        <v>0.5574637600307581</v>
+        <v>2.250164363458681E-118</v>
       </c>
       <c r="G6">
-        <v>-0.05466282556131523</v>
+        <v>-0.5024669468862289</v>
       </c>
       <c r="H6">
-        <v>0.02949844157012292</v>
+        <v>-0.4346489489131151</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -652,22 +652,22 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>0.03159363068831256</v>
+        <v>-0.1826326294594487</v>
       </c>
       <c r="D7">
-        <v>0.02078022592144993</v>
+        <v>0.01688228974400432</v>
       </c>
       <c r="E7">
-        <v>1.520369932826415</v>
+        <v>-10.8180011259616</v>
       </c>
       <c r="F7">
-        <v>0.1287752015268137</v>
+        <v>1.05645752763857E-25</v>
       </c>
       <c r="G7">
-        <v>-0.009190640740647855</v>
+        <v>-0.2157666237607861</v>
       </c>
       <c r="H7">
-        <v>0.07237790211727299</v>
+        <v>-0.1494986351581112</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -678,22 +678,22 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>-0.01316119509432687</v>
+        <v>0.1655723347394298</v>
       </c>
       <c r="D8">
-        <v>0.01742339200228827</v>
+        <v>0.01801130028429716</v>
       </c>
       <c r="E8">
-        <v>-0.7553750206962208</v>
+        <v>9.192691928176956</v>
       </c>
       <c r="F8">
-        <v>0.4502249808212021</v>
+        <v>2.673475524549945E-19</v>
       </c>
       <c r="G8">
-        <v>-0.04735718272798397</v>
+        <v>0.1302224900187795</v>
       </c>
       <c r="H8">
-        <v>0.02103479253933024</v>
+        <v>0.2009221794600801</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -704,22 +704,22 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>0.03541967514512007</v>
+        <v>0.3327388992973054</v>
       </c>
       <c r="D9">
-        <v>0.0331562942902704</v>
+        <v>0.01822927010726626</v>
       </c>
       <c r="E9">
-        <v>1.068263987375509</v>
+        <v>18.25300175703</v>
       </c>
       <c r="F9">
-        <v>0.2856927457678016</v>
+        <v>2.017898405076415E-63</v>
       </c>
       <c r="G9">
-        <v>-0.02965446365512477</v>
+        <v>0.296961256512433</v>
       </c>
       <c r="H9">
-        <v>0.1004938139453649</v>
+        <v>0.3685165420821778</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -730,22 +730,22 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>-0.4685579478996691</v>
+        <v>0.0129044238839188</v>
       </c>
       <c r="D10">
-        <v>0.01727716678568682</v>
+        <v>0.01741155389458637</v>
       </c>
       <c r="E10">
-        <v>-27.12006856864074</v>
+        <v>0.7411414260924215</v>
       </c>
       <c r="F10">
-        <v>2.250164363465598E-118</v>
+        <v>0.4588042999443537</v>
       </c>
       <c r="G10">
-        <v>-0.5024669468862261</v>
+        <v>-0.02126832970986096</v>
       </c>
       <c r="H10">
-        <v>-0.4346489489131121</v>
+        <v>0.04707717747769856</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -756,22 +756,22 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>-0.1826326294594428</v>
+        <v>0.02565365561956511</v>
       </c>
       <c r="D11">
-        <v>0.01688228974400436</v>
+        <v>0.01772248699316997</v>
       </c>
       <c r="E11">
-        <v>-10.81800112596123</v>
+        <v>1.447520070374531</v>
       </c>
       <c r="F11">
-        <v>1.056457527642342E-25</v>
+        <v>0.1481054509071895</v>
       </c>
       <c r="G11">
-        <v>-0.2157666237607804</v>
+        <v>-0.009129350236957913</v>
       </c>
       <c r="H11">
-        <v>-0.1494986351581053</v>
+        <v>0.06043666147608814</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -782,22 +782,22 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>0.1655723347394336</v>
+        <v>0.0469882581401617</v>
       </c>
       <c r="D12">
-        <v>0.01801130028429717</v>
+        <v>0.01750089526785623</v>
       </c>
       <c r="E12">
-        <v>9.192691928177164</v>
+        <v>2.68490596743726</v>
       </c>
       <c r="F12">
-        <v>2.673475524545195E-19</v>
+        <v>0.007390720452879381</v>
       </c>
       <c r="G12">
-        <v>0.1302224900187833</v>
+        <v>0.01264015886770418</v>
       </c>
       <c r="H12">
-        <v>0.2009221794600839</v>
+        <v>0.08133635741261921</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -808,22 +808,22 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>0.3327388992973073</v>
+        <v>0.03489466935012281</v>
       </c>
       <c r="D13">
-        <v>0.01822927010726629</v>
+        <v>0.01713132538299481</v>
       </c>
       <c r="E13">
-        <v>18.25300175703007</v>
+        <v>2.036892567854706</v>
       </c>
       <c r="F13">
-        <v>2.017898405074285E-63</v>
+        <v>0.04195795509743712</v>
       </c>
       <c r="G13">
-        <v>0.2969612565124349</v>
+        <v>0.001271905719016489</v>
       </c>
       <c r="H13">
-        <v>0.3685165420821798</v>
+        <v>0.06851743298122913</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -834,22 +834,22 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>0.01290442388391622</v>
+        <v>-0.09294559155136201</v>
       </c>
       <c r="D14">
-        <v>0.01741155389458637</v>
+        <v>0.06861871645074823</v>
       </c>
       <c r="E14">
-        <v>0.7411414260922732</v>
+        <v>-1.354522444588054</v>
       </c>
       <c r="F14">
-        <v>0.4588042999444435</v>
+        <v>0.1759154612992751</v>
       </c>
       <c r="G14">
-        <v>-0.02126832970986354</v>
+        <v>-0.2276199866908985</v>
       </c>
       <c r="H14">
-        <v>0.04707717747769597</v>
+        <v>0.04172880358817449</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -860,22 +860,22 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>0.0256536556195655</v>
+        <v>-0.02795822549496814</v>
       </c>
       <c r="D15">
-        <v>0.01772248699316997</v>
+        <v>0.04401812722176658</v>
       </c>
       <c r="E15">
-        <v>1.447520070374553</v>
+        <v>-0.6351525441805493</v>
       </c>
       <c r="F15">
-        <v>0.1481054509071836</v>
+        <v>0.5254931081058811</v>
       </c>
       <c r="G15">
-        <v>-0.009129350236957521</v>
+        <v>-0.1143503203255607</v>
       </c>
       <c r="H15">
-        <v>0.06043666147608852</v>
+        <v>0.05843386933562439</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -886,22 +886,22 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>0.04698825814016012</v>
+        <v>-0.009708464917104372</v>
       </c>
       <c r="D16">
-        <v>0.01750089526785625</v>
+        <v>0.04148534311961729</v>
       </c>
       <c r="E16">
-        <v>2.684905967437167</v>
+        <v>-0.2340215648960971</v>
       </c>
       <c r="F16">
-        <v>0.007390720452881419</v>
+        <v>0.8150223614279388</v>
       </c>
       <c r="G16">
-        <v>0.01264015886770256</v>
+        <v>-0.09112959578014995</v>
       </c>
       <c r="H16">
-        <v>0.08133635741261767</v>
+        <v>0.07171266594594122</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -912,22 +912,22 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>0.03489466935011911</v>
+        <v>0.01084301794400373</v>
       </c>
       <c r="D17">
-        <v>0.01713132538299482</v>
+        <v>0.02056277004545776</v>
       </c>
       <c r="E17">
-        <v>2.036892567854489</v>
+        <v>0.5273130964375545</v>
       </c>
       <c r="F17">
-        <v>0.04195795509745892</v>
+        <v>0.5981083406654331</v>
       </c>
       <c r="G17">
-        <v>0.001271905719012777</v>
+        <v>-0.02951446411780489</v>
       </c>
       <c r="H17">
-        <v>0.06851743298122545</v>
+        <v>0.05120050000581235</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -938,22 +938,22 @@
         <v>23</v>
       </c>
       <c r="C18">
-        <v>-0.09294559155132462</v>
+        <v>-0.06498736605638671</v>
       </c>
       <c r="D18">
-        <v>0.06861871645075117</v>
+        <v>0.07245785496961739</v>
       </c>
       <c r="E18">
-        <v>-1.354522444587451</v>
+        <v>-0.8968988397964145</v>
       </c>
       <c r="F18">
-        <v>0.1759154612994672</v>
+        <v>0.3700168079244094</v>
       </c>
       <c r="G18">
-        <v>-0.2276199866908669</v>
+        <v>-0.207196639209223</v>
       </c>
       <c r="H18">
-        <v>0.04172880358821765</v>
+        <v>0.07722190709644965</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -964,22 +964,22 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>-0.02795822549500611</v>
+        <v>-0.2694894936026518</v>
       </c>
       <c r="D19">
-        <v>0.04401812722177209</v>
+        <v>0.1937612790265176</v>
       </c>
       <c r="E19">
-        <v>-0.6351525441813324</v>
+        <v>-1.390832548982969</v>
       </c>
       <c r="F19">
-        <v>0.5254931081053706</v>
+        <v>0.1646258018378033</v>
       </c>
       <c r="G19">
-        <v>-0.1143503203256094</v>
+        <v>-0.6497747044618338</v>
       </c>
       <c r="H19">
-        <v>0.05843386933559723</v>
+        <v>0.1107957172565303</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -990,22 +990,22 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>-0.009708464917109513</v>
+        <v>-0.01258219199560887</v>
       </c>
       <c r="D20">
-        <v>0.04148534311961732</v>
+        <v>0.02144074276125131</v>
       </c>
       <c r="E20">
-        <v>-0.2340215648962209</v>
+        <v>-0.5868356397777401</v>
       </c>
       <c r="F20">
-        <v>0.8150223614278429</v>
+        <v>0.5574637600303601</v>
       </c>
       <c r="G20">
-        <v>-0.09112959578015516</v>
+        <v>-0.05466282556132795</v>
       </c>
       <c r="H20">
-        <v>0.07171266594593613</v>
+        <v>0.02949844157011022</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1016,22 +1016,22 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>0.01084301794400081</v>
+        <v>0.0315936306883336</v>
       </c>
       <c r="D21">
-        <v>0.02056277004545779</v>
+        <v>0.02078022592144995</v>
       </c>
       <c r="E21">
-        <v>0.527313096437412</v>
+        <v>1.520369932827426</v>
       </c>
       <c r="F21">
-        <v>0.5981083406655321</v>
+        <v>0.1287752015265597</v>
       </c>
       <c r="G21">
-        <v>-0.02951446411780787</v>
+        <v>-0.009190640740626844</v>
       </c>
       <c r="H21">
-        <v>0.05120050000580949</v>
+        <v>0.07237790211729406</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1042,22 +1042,22 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>-0.06498736605644614</v>
+        <v>-0.01316119509432882</v>
       </c>
       <c r="D22">
-        <v>0.07245785496961132</v>
+        <v>0.01742339200228819</v>
       </c>
       <c r="E22">
-        <v>-0.8968988397973099</v>
+        <v>-0.7553750206963361</v>
       </c>
       <c r="F22">
-        <v>0.3700168079239319</v>
+        <v>0.450224980821133</v>
       </c>
       <c r="G22">
-        <v>-0.2071966392092706</v>
+        <v>-0.04735718272798579</v>
       </c>
       <c r="H22">
-        <v>0.0772219070963783</v>
+        <v>0.02103479253932814</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1068,22 +1068,22 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>-0.2694894936026114</v>
+        <v>0.03541967514512121</v>
       </c>
       <c r="D23">
-        <v>0.1937612790265174</v>
+        <v>0.03315629429027034</v>
       </c>
       <c r="E23">
-        <v>-1.390832548982762</v>
+        <v>1.068263987375545</v>
       </c>
       <c r="F23">
-        <v>0.1646258018378661</v>
+        <v>0.2856927457677853</v>
       </c>
       <c r="G23">
-        <v>-0.6497747044617932</v>
+        <v>-0.0296544636551235</v>
       </c>
       <c r="H23">
-        <v>0.1107957172565703</v>
+        <v>0.1004938139453659</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1094,22 +1094,22 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>-0.4145750880015489</v>
+        <v>-0.4145750880016739</v>
       </c>
       <c r="D24">
-        <v>0.1935145026355205</v>
+        <v>0.1935145026355204</v>
       </c>
       <c r="E24">
-        <v>-2.142346347975739</v>
+        <v>-2.142346347976385</v>
       </c>
       <c r="F24">
-        <v>0.03243789607329165</v>
+        <v>0.03243789607323951</v>
       </c>
       <c r="G24">
-        <v>-0.7943759636397988</v>
+        <v>-0.7943759636399237</v>
       </c>
       <c r="H24">
-        <v>-0.03477421236329892</v>
+        <v>-0.03477421236342404</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1120,22 +1120,22 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>0.04795059174073152</v>
+        <v>0.04795059174073463</v>
       </c>
       <c r="D25">
-        <v>0.04151338308506357</v>
+        <v>0.04151338308506358</v>
       </c>
       <c r="E25">
-        <v>1.155063456102281</v>
+        <v>1.155063456102356</v>
       </c>
       <c r="F25">
-        <v>0.2483762102828797</v>
+        <v>0.2483762102828491</v>
       </c>
       <c r="G25">
-        <v>-0.03352557170790493</v>
+        <v>-0.03352557170790185</v>
       </c>
       <c r="H25">
-        <v>0.129426755189368</v>
+        <v>0.1294267551893711</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1146,22 +1146,22 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>0.01163781714576881</v>
+        <v>0.01163781714577029</v>
       </c>
       <c r="D26">
         <v>0.01930408159361601</v>
       </c>
       <c r="E26">
-        <v>0.6028682115401707</v>
+        <v>0.6028682115402469</v>
       </c>
       <c r="F26">
-        <v>0.5467508161956799</v>
+        <v>0.546750816195629</v>
       </c>
       <c r="G26">
-        <v>-0.02624930238685176</v>
+        <v>-0.0262493023868503</v>
       </c>
       <c r="H26">
-        <v>0.04952493667838939</v>
+        <v>0.04952493667839087</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1172,22 +1172,22 @@
         <v>32</v>
       </c>
       <c r="C27">
-        <v>-0.01189157064393095</v>
+        <v>-0.01189157064393176</v>
       </c>
       <c r="D27">
-        <v>0.02380161855839574</v>
+        <v>0.02380161855839573</v>
       </c>
       <c r="E27">
-        <v>-0.4996118484444977</v>
+        <v>-0.4996118484445317</v>
       </c>
       <c r="F27">
-        <v>0.6174725975351936</v>
+        <v>0.6174725975351696</v>
       </c>
       <c r="G27">
-        <v>-0.05860577266481354</v>
+        <v>-0.05860577266481434</v>
       </c>
       <c r="H27">
-        <v>0.03482263137695164</v>
+        <v>0.03482263137695082</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1198,22 +1198,22 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>0.03012174051157424</v>
+        <v>0.03012174051157027</v>
       </c>
       <c r="D28">
-        <v>0.02659375815076031</v>
+        <v>0.02659375815076035</v>
       </c>
       <c r="E28">
-        <v>1.132662045763286</v>
+        <v>1.132662045763135</v>
       </c>
       <c r="F28">
-        <v>0.257662973135251</v>
+        <v>0.2576629731353143</v>
       </c>
       <c r="G28">
-        <v>-0.0220724490432744</v>
+        <v>-0.02207244904327845</v>
       </c>
       <c r="H28">
-        <v>0.08231593006642288</v>
+        <v>0.08231593006641899</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1224,22 +1224,22 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>0.0284792218389937</v>
+        <v>0.02847922183899273</v>
       </c>
       <c r="D29">
-        <v>0.03010200668909182</v>
+        <v>0.03010200668909187</v>
       </c>
       <c r="E29">
-        <v>0.9460904760649669</v>
+        <v>0.9460904760649332</v>
       </c>
       <c r="F29">
-        <v>0.344360675926394</v>
+        <v>0.3443606759264114</v>
       </c>
       <c r="G29">
-        <v>-0.0306004251294759</v>
+        <v>-0.03060042512947696</v>
       </c>
       <c r="H29">
-        <v>0.0875588688074633</v>
+        <v>0.08755886880746241</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1250,22 +1250,22 @@
         <v>35</v>
       </c>
       <c r="C30">
-        <v>0.1046560361464998</v>
+        <v>0.1046560361465026</v>
       </c>
       <c r="D30">
-        <v>0.1014475205064919</v>
+        <v>0.1014475205064922</v>
       </c>
       <c r="E30">
-        <v>1.03162734410845</v>
+        <v>1.031627344108475</v>
       </c>
       <c r="F30">
-        <v>0.302528562512056</v>
+        <v>0.3025285625120444</v>
       </c>
       <c r="G30">
-        <v>-0.09444974969873439</v>
+        <v>-0.09444974969873211</v>
       </c>
       <c r="H30">
-        <v>0.303761821991734</v>
+        <v>0.3037618219917373</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1276,22 +1276,22 @@
         <v>36</v>
       </c>
       <c r="C31">
-        <v>-0.0008131036012210241</v>
+        <v>-0.0008131036012209102</v>
       </c>
       <c r="D31">
-        <v>0.00037747470466349</v>
+        <v>0.0003774747046634899</v>
       </c>
       <c r="E31">
-        <v>-2.154061162709928</v>
+        <v>-2.154061162709627</v>
       </c>
       <c r="F31">
-        <v>0.03150475056706984</v>
+        <v>0.03150475056709354</v>
       </c>
       <c r="G31">
-        <v>-0.001553953622330336</v>
+        <v>-0.001553953622330221</v>
       </c>
       <c r="H31">
-        <v>-7.225358011171245E-05</v>
+        <v>-7.225358011159883E-05</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1302,22 +1302,22 @@
         <v>37</v>
       </c>
       <c r="C32">
-        <v>0.0001711349591425465</v>
+        <v>0.0001711349591420369</v>
       </c>
       <c r="D32">
-        <v>0.0006417331251556012</v>
+        <v>0.0006417331251556005</v>
       </c>
       <c r="E32">
-        <v>0.2666762123289979</v>
+        <v>0.2666762123282042</v>
       </c>
       <c r="F32">
-        <v>0.7897805933258809</v>
+        <v>0.7897805933264919</v>
       </c>
       <c r="G32">
-        <v>-0.001088361355297661</v>
+        <v>-0.00108836135529817</v>
       </c>
       <c r="H32">
-        <v>0.001430631273582754</v>
+        <v>0.001430631273582244</v>
       </c>
     </row>
   </sheetData>

--- a/result_regression.xlsx
+++ b/result_regression.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>CONTENT</t>
   </si>
@@ -107,18 +107,6 @@
   </si>
   <si>
     <t>PROMOTION[T.Yes]</t>
-  </si>
-  <si>
-    <t>PERFORMANCE[T.2]</t>
-  </si>
-  <si>
-    <t>PERFORMANCE[T.3]</t>
-  </si>
-  <si>
-    <t>PERFORMANCE[T.4]</t>
-  </si>
-  <si>
-    <t>PERFORMANCE[T.5]</t>
   </si>
   <si>
     <t>High_Potential[T.Yes]</t>
@@ -485,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,22 +510,22 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>11.61260368958969</v>
+        <v>11.56950493959676</v>
       </c>
       <c r="D2">
-        <v>0.04250394951438174</v>
+        <v>0.03784853219978591</v>
       </c>
       <c r="E2">
-        <v>273.2123443178008</v>
+        <v>305.679091557009</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>11.52918339279648</v>
+        <v>11.49522204657769</v>
       </c>
       <c r="H2">
-        <v>11.6960239863829</v>
+        <v>11.64378783261583</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -548,22 +536,22 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.1068663278366113</v>
+        <v>-0.1067143510252782</v>
       </c>
       <c r="D3">
-        <v>0.01167522650428014</v>
+        <v>0.01205818165903578</v>
       </c>
       <c r="E3">
-        <v>-9.153255210717676</v>
+        <v>-8.849953835727131</v>
       </c>
       <c r="F3">
-        <v>3.7342706572684E-19</v>
+        <v>4.660174271753537E-18</v>
       </c>
       <c r="G3">
-        <v>-0.1297806892369675</v>
+        <v>-0.1303801728186989</v>
       </c>
       <c r="H3">
-        <v>-0.08395196643625506</v>
+        <v>-0.08304852923185754</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -574,22 +562,22 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.04802493060300515</v>
+        <v>-0.02302535896130423</v>
       </c>
       <c r="D4">
-        <v>0.03452699751064092</v>
+        <v>0.03440115588255443</v>
       </c>
       <c r="E4">
-        <v>-1.390938513787777</v>
+        <v>-0.6693193403126577</v>
       </c>
       <c r="F4">
-        <v>0.1645936742278324</v>
+        <v>0.5034655752917799</v>
       </c>
       <c r="G4">
-        <v>-0.1157892775077941</v>
+        <v>-0.09054230700745933</v>
       </c>
       <c r="H4">
-        <v>0.01973941630178377</v>
+        <v>0.04449158908485087</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -600,22 +588,22 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.0870041181251226</v>
+        <v>-0.05963598944704079</v>
       </c>
       <c r="D5">
-        <v>0.04740692265037461</v>
+        <v>0.04922712908523677</v>
       </c>
       <c r="E5">
-        <v>-1.835261882885265</v>
+        <v>-1.21144561048403</v>
       </c>
       <c r="F5">
-        <v>0.06680233612724114</v>
+        <v>0.2260465821095037</v>
       </c>
       <c r="G5">
-        <v>-0.1800472259475857</v>
+        <v>-0.1562509266967163</v>
       </c>
       <c r="H5">
-        <v>0.006038989697340541</v>
+        <v>0.03697894780263473</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -626,22 +614,22 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>-0.468557947899672</v>
+        <v>-0.4650171870167542</v>
       </c>
       <c r="D6">
-        <v>0.0172771667856868</v>
+        <v>0.01779425321682642</v>
       </c>
       <c r="E6">
-        <v>-27.12006856864096</v>
+        <v>-26.13299818488755</v>
       </c>
       <c r="F6">
-        <v>2.250164363458681E-118</v>
+        <v>3.798355259934572E-112</v>
       </c>
       <c r="G6">
-        <v>-0.5024669468862289</v>
+        <v>-0.4999408295263904</v>
       </c>
       <c r="H6">
-        <v>-0.4346489489131151</v>
+        <v>-0.4300935445071181</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -652,22 +640,22 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>-0.1826326294594487</v>
+        <v>-0.1774201981590229</v>
       </c>
       <c r="D7">
-        <v>0.01688228974400432</v>
+        <v>0.01750212753598748</v>
       </c>
       <c r="E7">
-        <v>-10.8180011259616</v>
+        <v>-10.13706463938258</v>
       </c>
       <c r="F7">
-        <v>1.05645752763857E-25</v>
+        <v>6.3041666737254E-23</v>
       </c>
       <c r="G7">
-        <v>-0.2157666237607861</v>
+        <v>-0.2117705042818386</v>
       </c>
       <c r="H7">
-        <v>-0.1494986351581112</v>
+        <v>-0.1430698920362072</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -678,22 +666,22 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>0.1655723347394298</v>
+        <v>0.1720252311243591</v>
       </c>
       <c r="D8">
-        <v>0.01801130028429716</v>
+        <v>0.01855220359627612</v>
       </c>
       <c r="E8">
-        <v>9.192691928176956</v>
+        <v>9.272495864528391</v>
       </c>
       <c r="F8">
-        <v>2.673475524549945E-19</v>
+        <v>1.3432901207438E-19</v>
       </c>
       <c r="G8">
-        <v>0.1302224900187795</v>
+        <v>0.1356140078902386</v>
       </c>
       <c r="H8">
-        <v>0.2009221794600801</v>
+        <v>0.2084364543584795</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -704,22 +692,22 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>0.3327388992973054</v>
+        <v>0.3481200078155988</v>
       </c>
       <c r="D9">
-        <v>0.01822927010726626</v>
+        <v>0.01858179852915638</v>
       </c>
       <c r="E9">
-        <v>18.25300175703</v>
+        <v>18.73446250476615</v>
       </c>
       <c r="F9">
-        <v>2.017898405076415E-63</v>
+        <v>2.912066223534271E-66</v>
       </c>
       <c r="G9">
-        <v>0.296961256512433</v>
+        <v>0.3116507004998699</v>
       </c>
       <c r="H9">
-        <v>0.3685165420821778</v>
+        <v>0.3845893151313277</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -730,22 +718,22 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>0.0129044238839188</v>
+        <v>-0.004864792908532655</v>
       </c>
       <c r="D10">
-        <v>0.01741155389458637</v>
+        <v>0.01808024239140632</v>
       </c>
       <c r="E10">
-        <v>0.7411414260924215</v>
+        <v>-0.2690667969609152</v>
       </c>
       <c r="F10">
-        <v>0.4588042999443537</v>
+        <v>0.7879407128802851</v>
       </c>
       <c r="G10">
-        <v>-0.02126832970986096</v>
+        <v>-0.04034972807670026</v>
       </c>
       <c r="H10">
-        <v>0.04707717747769856</v>
+        <v>0.03062014225963494</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -756,22 +744,22 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>0.02565365561956511</v>
+        <v>0.005445695564712603</v>
       </c>
       <c r="D11">
-        <v>0.01772248699316997</v>
+        <v>0.01836575738822852</v>
       </c>
       <c r="E11">
-        <v>1.447520070374531</v>
+        <v>0.2965135305665644</v>
       </c>
       <c r="F11">
-        <v>0.1481054509071895</v>
+        <v>0.7669071922874984</v>
       </c>
       <c r="G11">
-        <v>-0.009129350236957913</v>
+        <v>-0.03059960162363405</v>
       </c>
       <c r="H11">
-        <v>0.06043666147608814</v>
+        <v>0.04149099275305926</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -782,22 +770,22 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>0.0469882581401617</v>
+        <v>0.04525939306627215</v>
       </c>
       <c r="D12">
-        <v>0.01750089526785623</v>
+        <v>0.01819233991532723</v>
       </c>
       <c r="E12">
-        <v>2.68490596743726</v>
+        <v>2.487826924789409</v>
       </c>
       <c r="F12">
-        <v>0.007390720452879381</v>
+        <v>0.01303487011136738</v>
       </c>
       <c r="G12">
-        <v>0.01264015886770418</v>
+        <v>0.009554451258661688</v>
       </c>
       <c r="H12">
-        <v>0.08133635741261921</v>
+        <v>0.0809643348738826</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -808,22 +796,22 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>0.03489466935012281</v>
+        <v>0.01952988977825343</v>
       </c>
       <c r="D13">
-        <v>0.01713132538299481</v>
+        <v>0.01770281441366384</v>
       </c>
       <c r="E13">
-        <v>2.036892567854706</v>
+        <v>1.103208186105107</v>
       </c>
       <c r="F13">
-        <v>0.04195795509743712</v>
+        <v>0.2702353074058549</v>
       </c>
       <c r="G13">
-        <v>0.001271905719016489</v>
+        <v>-0.01521429164165633</v>
       </c>
       <c r="H13">
-        <v>0.06851743298122913</v>
+        <v>0.05427407119816319</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -834,22 +822,22 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>-0.09294559155136201</v>
+        <v>-0.08543069705012271</v>
       </c>
       <c r="D14">
-        <v>0.06861871645074823</v>
+        <v>0.07122824764985751</v>
       </c>
       <c r="E14">
-        <v>-1.354522444588054</v>
+        <v>-1.19939349722713</v>
       </c>
       <c r="F14">
-        <v>0.1759154612992751</v>
+        <v>0.2306945428809632</v>
       </c>
       <c r="G14">
-        <v>-0.2276199866908985</v>
+        <v>-0.2252258223189485</v>
       </c>
       <c r="H14">
-        <v>0.04172880358817449</v>
+        <v>0.05436442821870305</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -860,22 +848,22 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>-0.02795822549496814</v>
+        <v>-0.02266266929129853</v>
       </c>
       <c r="D15">
-        <v>0.04401812722176658</v>
+        <v>0.04591812820637024</v>
       </c>
       <c r="E15">
-        <v>-0.6351525441805493</v>
+        <v>-0.4935451460356898</v>
       </c>
       <c r="F15">
-        <v>0.5254931081058811</v>
+        <v>0.6217493509748089</v>
       </c>
       <c r="G15">
-        <v>-0.1143503203255607</v>
+        <v>-0.1127832421892108</v>
       </c>
       <c r="H15">
-        <v>0.05843386933562439</v>
+        <v>0.0674579036066137</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -886,22 +874,22 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>-0.009708464917104372</v>
+        <v>-0.005808397200809961</v>
       </c>
       <c r="D16">
-        <v>0.04148534311961729</v>
+        <v>0.04070174532213096</v>
       </c>
       <c r="E16">
-        <v>-0.2340215648960971</v>
+        <v>-0.1427063423162774</v>
       </c>
       <c r="F16">
-        <v>0.8150223614279388</v>
+        <v>0.8865544440400723</v>
       </c>
       <c r="G16">
-        <v>-0.09112959578014995</v>
+        <v>-0.08569110909816663</v>
       </c>
       <c r="H16">
-        <v>0.07171266594594122</v>
+        <v>0.07407431469654671</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -912,22 +900,22 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>0.01084301794400373</v>
+        <v>0.005597194896959305</v>
       </c>
       <c r="D17">
-        <v>0.02056277004545776</v>
+        <v>0.01786905348335508</v>
       </c>
       <c r="E17">
-        <v>0.5273130964375545</v>
+        <v>0.3132339887041616</v>
       </c>
       <c r="F17">
-        <v>0.5981083406654331</v>
+        <v>0.7541763698368326</v>
       </c>
       <c r="G17">
-        <v>-0.02951446411780489</v>
+        <v>-0.02947325331090093</v>
       </c>
       <c r="H17">
-        <v>0.05120050000581235</v>
+        <v>0.04066764310481955</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -938,22 +926,22 @@
         <v>23</v>
       </c>
       <c r="C18">
-        <v>-0.06498736605638671</v>
+        <v>-0.06276802775884618</v>
       </c>
       <c r="D18">
-        <v>0.07245785496961739</v>
+        <v>0.07533082715366964</v>
       </c>
       <c r="E18">
-        <v>-0.8968988397964145</v>
+        <v>-0.8332316281461212</v>
       </c>
       <c r="F18">
-        <v>0.3700168079244094</v>
+        <v>0.4049379090325235</v>
       </c>
       <c r="G18">
-        <v>-0.207196639209223</v>
+        <v>-0.2106150233822542</v>
       </c>
       <c r="H18">
-        <v>0.07722190709644965</v>
+        <v>0.08507896786456187</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -964,22 +952,22 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>-0.2694894936026518</v>
+        <v>-0.3001664191685195</v>
       </c>
       <c r="D19">
-        <v>0.1937612790265176</v>
+        <v>0.2009247786167625</v>
       </c>
       <c r="E19">
-        <v>-1.390832548982969</v>
+        <v>-1.49392434937578</v>
       </c>
       <c r="F19">
-        <v>0.1646258018378033</v>
+        <v>0.135550225158067</v>
       </c>
       <c r="G19">
-        <v>-0.6497747044618338</v>
+        <v>-0.694508629220034</v>
       </c>
       <c r="H19">
-        <v>0.1107957172565303</v>
+        <v>0.09417579088299483</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -990,22 +978,22 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>-0.01258219199560887</v>
+        <v>-0.06570145040776243</v>
       </c>
       <c r="D20">
-        <v>0.02144074276125131</v>
+        <v>0.02224550170933158</v>
       </c>
       <c r="E20">
-        <v>-0.5868356397777401</v>
+        <v>-2.953471280002729</v>
       </c>
       <c r="F20">
-        <v>0.5574637600303601</v>
+        <v>0.003224990008723133</v>
       </c>
       <c r="G20">
-        <v>-0.05466282556132795</v>
+        <v>-0.1093612735921126</v>
       </c>
       <c r="H20">
-        <v>0.02949844157011022</v>
+        <v>-0.02204162722341225</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1016,22 +1004,22 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>0.0315936306883336</v>
+        <v>-0.0658492354741801</v>
       </c>
       <c r="D21">
-        <v>0.02078022592144995</v>
+        <v>0.02141924193051928</v>
       </c>
       <c r="E21">
-        <v>1.520369932827426</v>
+        <v>-3.074302801555017</v>
       </c>
       <c r="F21">
-        <v>0.1287752015265597</v>
+        <v>0.002174393300573238</v>
       </c>
       <c r="G21">
-        <v>-0.009190640740626844</v>
+        <v>-0.107887411445595</v>
       </c>
       <c r="H21">
-        <v>0.07237790211729406</v>
+        <v>-0.02381105950276523</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1042,22 +1030,22 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>-0.01316119509432882</v>
+        <v>0.004956417010236295</v>
       </c>
       <c r="D22">
-        <v>0.01742339200228819</v>
+        <v>0.01743014300113598</v>
       </c>
       <c r="E22">
-        <v>-0.7553750206963361</v>
+        <v>0.2843589412842607</v>
       </c>
       <c r="F22">
-        <v>0.450224980821133</v>
+        <v>0.7762015411483461</v>
       </c>
       <c r="G22">
-        <v>-0.04735718272798579</v>
+        <v>-0.0292526096707988</v>
       </c>
       <c r="H22">
-        <v>0.02103479253932814</v>
+        <v>0.0391654436912714</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1068,22 +1056,22 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>0.03541967514512121</v>
+        <v>0.03973955310869579</v>
       </c>
       <c r="D23">
-        <v>0.03315629429027034</v>
+        <v>0.03304150660551593</v>
       </c>
       <c r="E23">
-        <v>1.068263987375545</v>
+        <v>1.202716134683207</v>
       </c>
       <c r="F23">
-        <v>0.2856927457677853</v>
+        <v>0.2294064096455989</v>
       </c>
       <c r="G23">
-        <v>-0.0296544636551235</v>
+        <v>-0.02510889827670165</v>
       </c>
       <c r="H23">
-        <v>0.1004938139453659</v>
+        <v>0.1045880044940932</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1094,22 +1082,22 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>-0.4145750880016739</v>
+        <v>-0.4309522844393197</v>
       </c>
       <c r="D24">
-        <v>0.1935145026355204</v>
+        <v>0.2008780684399243</v>
       </c>
       <c r="E24">
-        <v>-2.142346347976385</v>
+        <v>-2.145342633898347</v>
       </c>
       <c r="F24">
-        <v>0.03243789607323951</v>
+        <v>0.03219577397737307</v>
       </c>
       <c r="G24">
-        <v>-0.7943759636399237</v>
+        <v>-0.8252028194147529</v>
       </c>
       <c r="H24">
-        <v>-0.03477421236342404</v>
+        <v>-0.03670174946388638</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1120,22 +1108,22 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>0.04795059174073463</v>
+        <v>0.08346914936268235</v>
       </c>
       <c r="D25">
-        <v>0.04151338308506358</v>
+        <v>0.0425111340765427</v>
       </c>
       <c r="E25">
-        <v>1.155063456102356</v>
+        <v>1.963465599680154</v>
       </c>
       <c r="F25">
-        <v>0.2483762102828491</v>
+        <v>0.04990345102510469</v>
       </c>
       <c r="G25">
-        <v>-0.03352557170790185</v>
+        <v>3.526590167285404E-05</v>
       </c>
       <c r="H25">
-        <v>0.1294267551893711</v>
+        <v>0.1669030328236918</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1146,22 +1134,22 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>0.01163781714577029</v>
+        <v>0.2064958428600581</v>
       </c>
       <c r="D26">
-        <v>0.01930408159361601</v>
+        <v>0.1051236116703738</v>
       </c>
       <c r="E26">
-        <v>0.6028682115402469</v>
+        <v>1.964314577656898</v>
       </c>
       <c r="F26">
-        <v>0.546750816195629</v>
+        <v>0.04980480526773374</v>
       </c>
       <c r="G26">
-        <v>-0.0262493023868503</v>
+        <v>0.0001764548777440922</v>
       </c>
       <c r="H26">
-        <v>0.04952493667839087</v>
+        <v>0.4128152308423721</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1172,22 +1160,22 @@
         <v>32</v>
       </c>
       <c r="C27">
-        <v>-0.01189157064393176</v>
+        <v>-0.0002339775561427425</v>
       </c>
       <c r="D27">
-        <v>0.02380161855839573</v>
+        <v>0.0003963326326534141</v>
       </c>
       <c r="E27">
-        <v>-0.4996118484445317</v>
+        <v>-0.5903565259723436</v>
       </c>
       <c r="F27">
-        <v>0.6174725975351696</v>
+        <v>0.555101683444208</v>
       </c>
       <c r="G27">
-        <v>-0.05860577266481434</v>
+        <v>-0.001011834261284054</v>
       </c>
       <c r="H27">
-        <v>0.03482263137695082</v>
+        <v>0.000543879148998569</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1198,126 +1186,22 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>0.03012174051157027</v>
+        <v>0.000406967861468795</v>
       </c>
       <c r="D28">
-        <v>0.02659375815076035</v>
+        <v>0.000666080002915163</v>
       </c>
       <c r="E28">
-        <v>1.132662045763135</v>
+        <v>0.6109894602565175</v>
       </c>
       <c r="F28">
-        <v>0.2576629731353143</v>
+        <v>0.5413627405819883</v>
       </c>
       <c r="G28">
-        <v>-0.02207244904327845</v>
+        <v>-0.0009003047518392948</v>
       </c>
       <c r="H28">
-        <v>0.08231593006641899</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29">
-        <v>0.02847922183899273</v>
-      </c>
-      <c r="D29">
-        <v>0.03010200668909187</v>
-      </c>
-      <c r="E29">
-        <v>0.9460904760649332</v>
-      </c>
-      <c r="F29">
-        <v>0.3443606759264114</v>
-      </c>
-      <c r="G29">
-        <v>-0.03060042512947696</v>
-      </c>
-      <c r="H29">
-        <v>0.08755886880746241</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30">
-        <v>0.1046560361465026</v>
-      </c>
-      <c r="D30">
-        <v>0.1014475205064922</v>
-      </c>
-      <c r="E30">
-        <v>1.031627344108475</v>
-      </c>
-      <c r="F30">
-        <v>0.3025285625120444</v>
-      </c>
-      <c r="G30">
-        <v>-0.09444974969873211</v>
-      </c>
-      <c r="H30">
-        <v>0.3037618219917373</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31">
-        <v>-0.0008131036012209102</v>
-      </c>
-      <c r="D31">
-        <v>0.0003774747046634899</v>
-      </c>
-      <c r="E31">
-        <v>-2.154061162709627</v>
-      </c>
-      <c r="F31">
-        <v>0.03150475056709354</v>
-      </c>
-      <c r="G31">
-        <v>-0.001553953622330221</v>
-      </c>
-      <c r="H31">
-        <v>-7.225358011159883E-05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32">
-        <v>0.0001711349591420369</v>
-      </c>
-      <c r="D32">
-        <v>0.0006417331251556005</v>
-      </c>
-      <c r="E32">
-        <v>0.2666762123282042</v>
-      </c>
-      <c r="F32">
-        <v>0.7897805933264919</v>
-      </c>
-      <c r="G32">
-        <v>-0.00108836135529817</v>
-      </c>
-      <c r="H32">
-        <v>0.001430631273582244</v>
+        <v>0.001714240474776885</v>
       </c>
     </row>
   </sheetData>

--- a/result_regression.xlsx
+++ b/result_regression.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>CONTENT</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>Engagement_Score</t>
-  </si>
-  <si>
-    <t>TENURE</t>
   </si>
 </sst>
 </file>
@@ -473,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,22 +507,22 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>11.56950493959676</v>
+        <v>11.5763099470374</v>
       </c>
       <c r="D2">
-        <v>0.03784853219978591</v>
+        <v>0.03615995072102283</v>
       </c>
       <c r="E2">
-        <v>305.679091557009</v>
+        <v>320.1417511973297</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>11.49522204657769</v>
+        <v>11.50534123357821</v>
       </c>
       <c r="H2">
-        <v>11.64378783261583</v>
+        <v>11.64727866049659</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -536,22 +533,22 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.1067143510252782</v>
+        <v>-0.1066056711036824</v>
       </c>
       <c r="D3">
-        <v>0.01205818165903578</v>
+        <v>0.01205262397240748</v>
       </c>
       <c r="E3">
-        <v>-8.849953835727131</v>
+        <v>-8.845017595150962</v>
       </c>
       <c r="F3">
-        <v>4.660174271753537E-18</v>
+        <v>4.844860339705209E-18</v>
       </c>
       <c r="G3">
-        <v>-0.1303801728186989</v>
+        <v>-0.130260548947082</v>
       </c>
       <c r="H3">
-        <v>-0.08304852923185754</v>
+        <v>-0.08295079326028282</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -562,22 +559,22 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.02302535896130423</v>
+        <v>-0.0228967132537099</v>
       </c>
       <c r="D4">
-        <v>0.03440115588255443</v>
+        <v>0.03438839786743676</v>
       </c>
       <c r="E4">
-        <v>-0.6693193403126577</v>
+        <v>-0.6658266936998356</v>
       </c>
       <c r="F4">
-        <v>0.5034655752917799</v>
+        <v>0.5056944086065681</v>
       </c>
       <c r="G4">
-        <v>-0.09054230700745933</v>
+        <v>-0.09038851857732315</v>
       </c>
       <c r="H4">
-        <v>0.04449158908485087</v>
+        <v>0.04459509206990335</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -588,22 +585,22 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.05963598944704079</v>
+        <v>-0.05846569246357822</v>
       </c>
       <c r="D5">
-        <v>0.04922712908523677</v>
+        <v>0.04917252938360102</v>
       </c>
       <c r="E5">
-        <v>-1.21144561048403</v>
+        <v>-1.188990950770095</v>
       </c>
       <c r="F5">
-        <v>0.2260465821095037</v>
+        <v>0.2347603595419952</v>
       </c>
       <c r="G5">
-        <v>-0.1562509266967163</v>
+        <v>-0.1549733225433806</v>
       </c>
       <c r="H5">
-        <v>0.03697894780263473</v>
+        <v>0.03804193761622417</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -614,22 +611,22 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>-0.4650171870167542</v>
+        <v>-0.4641578092970641</v>
       </c>
       <c r="D6">
-        <v>0.01779425321682642</v>
+        <v>0.01773233044970159</v>
       </c>
       <c r="E6">
-        <v>-26.13299818488755</v>
+        <v>-26.17579288935906</v>
       </c>
       <c r="F6">
-        <v>3.798355259934572E-112</v>
+        <v>1.882960147408056E-112</v>
       </c>
       <c r="G6">
-        <v>-0.4999408295263904</v>
+        <v>-0.4989598666438097</v>
       </c>
       <c r="H6">
-        <v>-0.4300935445071181</v>
+        <v>-0.4293557519503184</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -640,22 +637,22 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>-0.1774201981590229</v>
+        <v>-0.1772994028565064</v>
       </c>
       <c r="D7">
-        <v>0.01750212753598748</v>
+        <v>0.01749484812635004</v>
       </c>
       <c r="E7">
-        <v>-10.13706463938258</v>
+        <v>-10.13437793663754</v>
       </c>
       <c r="F7">
-        <v>6.3041666737254E-23</v>
+        <v>6.442503121485122E-23</v>
       </c>
       <c r="G7">
-        <v>-0.2117705042818386</v>
+        <v>-0.2116353695526428</v>
       </c>
       <c r="H7">
-        <v>-0.1430698920362072</v>
+        <v>-0.1429634361603699</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -666,22 +663,22 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>0.1720252311243591</v>
+        <v>0.1722136787053727</v>
       </c>
       <c r="D8">
-        <v>0.01855220359627612</v>
+        <v>0.01854310759760304</v>
       </c>
       <c r="E8">
-        <v>9.272495864528391</v>
+        <v>9.28720700124901</v>
       </c>
       <c r="F8">
-        <v>1.3432901207438E-19</v>
+        <v>1.181901236257301E-19</v>
       </c>
       <c r="G8">
-        <v>0.1356140078902386</v>
+        <v>0.1358203633524256</v>
       </c>
       <c r="H8">
-        <v>0.2084364543584795</v>
+        <v>0.2086069940583197</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -692,22 +689,22 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>0.3481200078155988</v>
+        <v>0.3485381664764803</v>
       </c>
       <c r="D9">
-        <v>0.01858179852915638</v>
+        <v>0.01856265170000165</v>
       </c>
       <c r="E9">
-        <v>18.73446250476615</v>
+        <v>18.77631343351927</v>
       </c>
       <c r="F9">
-        <v>2.912066223534271E-66</v>
+        <v>1.615610456869745E-66</v>
       </c>
       <c r="G9">
-        <v>0.3116507004998699</v>
+        <v>0.3121064932227263</v>
       </c>
       <c r="H9">
-        <v>0.3845893151313277</v>
+        <v>0.3849698397302344</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -718,22 +715,22 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>-0.004864792908532655</v>
+        <v>-0.004845875036417119</v>
       </c>
       <c r="D10">
-        <v>0.01808024239140632</v>
+        <v>0.01807384918284561</v>
       </c>
       <c r="E10">
-        <v>-0.2690667969609152</v>
+        <v>-0.2681152745822662</v>
       </c>
       <c r="F10">
-        <v>0.7879407128802851</v>
+        <v>0.788672716507942</v>
       </c>
       <c r="G10">
-        <v>-0.04034972807670026</v>
+        <v>-0.04031820832740932</v>
       </c>
       <c r="H10">
-        <v>0.03062014225963494</v>
+        <v>0.03062645825457509</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -744,22 +741,22 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>0.005445695564712603</v>
+        <v>0.005050111851359416</v>
       </c>
       <c r="D11">
-        <v>0.01836575738822852</v>
+        <v>0.01834787838387031</v>
       </c>
       <c r="E11">
-        <v>0.2965135305665644</v>
+        <v>0.2752422784641406</v>
       </c>
       <c r="F11">
-        <v>0.7669071922874984</v>
+        <v>0.7831939931651436</v>
       </c>
       <c r="G11">
-        <v>-0.03059960162363405</v>
+        <v>-0.03096004019931561</v>
       </c>
       <c r="H11">
-        <v>0.04149099275305926</v>
+        <v>0.04106026390203444</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -770,22 +767,22 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>0.04525939306627215</v>
+        <v>0.04510763626096898</v>
       </c>
       <c r="D12">
-        <v>0.01819233991532723</v>
+        <v>0.01818423870491847</v>
       </c>
       <c r="E12">
-        <v>2.487826924789409</v>
+        <v>2.480589756488859</v>
       </c>
       <c r="F12">
-        <v>0.01303487011136738</v>
+        <v>0.01330039258357087</v>
       </c>
       <c r="G12">
-        <v>0.009554451258661688</v>
+        <v>0.00941864884836785</v>
       </c>
       <c r="H12">
-        <v>0.0809643348738826</v>
+        <v>0.08079662367357011</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -796,22 +793,22 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>0.01952988977825343</v>
+        <v>0.01953576718478974</v>
       </c>
       <c r="D13">
-        <v>0.01770281441366384</v>
+        <v>0.01769657800118786</v>
       </c>
       <c r="E13">
-        <v>1.103208186105107</v>
+        <v>1.103929086373559</v>
       </c>
       <c r="F13">
-        <v>0.2702353074058549</v>
+        <v>0.2699222767739635</v>
       </c>
       <c r="G13">
-        <v>-0.01521429164165633</v>
+        <v>-0.0151961212257864</v>
       </c>
       <c r="H13">
-        <v>0.05427407119816319</v>
+        <v>0.05426765559536589</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -822,22 +819,22 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>-0.08543069705012271</v>
+        <v>-0.08567784456548458</v>
       </c>
       <c r="D14">
-        <v>0.07122824764985751</v>
+        <v>0.07120201742435767</v>
       </c>
       <c r="E14">
-        <v>-1.19939349722713</v>
+        <v>-1.203306418339979</v>
       </c>
       <c r="F14">
-        <v>0.2306945428809632</v>
+        <v>0.2291777436442681</v>
       </c>
       <c r="G14">
-        <v>-0.2252258223189485</v>
+        <v>-0.2254212753928848</v>
       </c>
       <c r="H14">
-        <v>0.05436442821870305</v>
+        <v>0.05406558626191563</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -848,22 +845,22 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>-0.02266266929129853</v>
+        <v>-0.02231479792874633</v>
       </c>
       <c r="D15">
-        <v>0.04591812820637024</v>
+        <v>0.04589843003770674</v>
       </c>
       <c r="E15">
-        <v>-0.4935451460356898</v>
+        <v>-0.4861778041299919</v>
       </c>
       <c r="F15">
-        <v>0.6217493509748089</v>
+        <v>0.626960789759529</v>
       </c>
       <c r="G15">
-        <v>-0.1127832421892108</v>
+        <v>-0.1123965725059138</v>
       </c>
       <c r="H15">
-        <v>0.0674579036066137</v>
+        <v>0.06776697664842118</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -874,22 +871,22 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>-0.005808397200809961</v>
+        <v>-0.00581095282974464</v>
       </c>
       <c r="D16">
-        <v>0.04070174532213096</v>
+        <v>0.04068741255384917</v>
       </c>
       <c r="E16">
-        <v>-0.1427063423162774</v>
+        <v>-0.1428194241168305</v>
       </c>
       <c r="F16">
-        <v>0.8865544440400723</v>
+        <v>0.8864651223773793</v>
       </c>
       <c r="G16">
-        <v>-0.08569110909816663</v>
+        <v>-0.0856654124004316</v>
       </c>
       <c r="H16">
-        <v>0.07407431469654671</v>
+        <v>0.07404350674094232</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -900,22 +897,22 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>0.005597194896959305</v>
+        <v>0.005335239986394312</v>
       </c>
       <c r="D17">
-        <v>0.01786905348335508</v>
+        <v>0.0178576187706562</v>
       </c>
       <c r="E17">
-        <v>0.3132339887041616</v>
+        <v>0.2987654767925288</v>
       </c>
       <c r="F17">
-        <v>0.7541763698368326</v>
+        <v>0.7651887375731158</v>
       </c>
       <c r="G17">
-        <v>-0.02947325331090093</v>
+        <v>-0.029712712356675</v>
       </c>
       <c r="H17">
-        <v>0.04066764310481955</v>
+        <v>0.04038319232946363</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -926,22 +923,22 @@
         <v>23</v>
       </c>
       <c r="C18">
-        <v>-0.06276802775884618</v>
+        <v>-0.06336304663676977</v>
       </c>
       <c r="D18">
-        <v>0.07533082715366964</v>
+        <v>0.07529800746848832</v>
       </c>
       <c r="E18">
-        <v>-0.8332316281461212</v>
+        <v>-0.8414969899872418</v>
       </c>
       <c r="F18">
-        <v>0.4049379090325235</v>
+        <v>0.4002956117763437</v>
       </c>
       <c r="G18">
-        <v>-0.2106150233822542</v>
+        <v>-0.2111454027939161</v>
       </c>
       <c r="H18">
-        <v>0.08507896786456187</v>
+        <v>0.08441930952037653</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -952,22 +949,22 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>-0.3001664191685195</v>
+        <v>-0.293969468559988</v>
       </c>
       <c r="D19">
-        <v>0.2009247786167625</v>
+        <v>0.2005979614092684</v>
       </c>
       <c r="E19">
-        <v>-1.49392434937578</v>
+        <v>-1.465465882578034</v>
       </c>
       <c r="F19">
-        <v>0.135550225158067</v>
+        <v>0.1431470333542878</v>
       </c>
       <c r="G19">
-        <v>-0.694508629220034</v>
+        <v>-0.6876696523236574</v>
       </c>
       <c r="H19">
-        <v>0.09417579088299483</v>
+        <v>0.09973071520368137</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -978,22 +975,22 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>-0.06570145040776243</v>
+        <v>-0.06518080107097415</v>
       </c>
       <c r="D20">
-        <v>0.02224550170933158</v>
+        <v>0.02222134686384235</v>
       </c>
       <c r="E20">
-        <v>-2.953471280002729</v>
+        <v>-2.933251592280108</v>
       </c>
       <c r="F20">
-        <v>0.003224990008723133</v>
+        <v>0.003440379652595433</v>
       </c>
       <c r="G20">
-        <v>-0.1093612735921126</v>
+        <v>-0.1087931502808538</v>
       </c>
       <c r="H20">
-        <v>-0.02204162722341225</v>
+        <v>-0.02156845186109454</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1004,22 +1001,22 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>-0.0658492354741801</v>
+        <v>-0.06532056862537527</v>
       </c>
       <c r="D21">
-        <v>0.02141924193051928</v>
+        <v>0.02139422163472373</v>
       </c>
       <c r="E21">
-        <v>-3.074302801555017</v>
+        <v>-3.053187432598961</v>
       </c>
       <c r="F21">
-        <v>0.002174393300573238</v>
+        <v>0.002331580381575777</v>
       </c>
       <c r="G21">
-        <v>-0.107887411445595</v>
+        <v>-0.107309574544965</v>
       </c>
       <c r="H21">
-        <v>-0.02381105950276523</v>
+        <v>-0.02333156270578556</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1030,22 +1027,22 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>0.004956417010236295</v>
+        <v>0.005030745184045785</v>
       </c>
       <c r="D22">
-        <v>0.01743014300113598</v>
+        <v>0.01742358083291136</v>
       </c>
       <c r="E22">
-        <v>0.2843589412842607</v>
+        <v>0.2887319909890867</v>
       </c>
       <c r="F22">
-        <v>0.7762015411483461</v>
+        <v>0.7728537141022239</v>
       </c>
       <c r="G22">
-        <v>-0.0292526096707988</v>
+        <v>-0.02916534996840178</v>
       </c>
       <c r="H22">
-        <v>0.0391654436912714</v>
+        <v>0.03922684033649335</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1056,22 +1053,22 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>0.03973955310869579</v>
+        <v>0.03943250614708871</v>
       </c>
       <c r="D23">
-        <v>0.03304150660551593</v>
+        <v>0.03302605096084994</v>
       </c>
       <c r="E23">
-        <v>1.202716134683207</v>
+        <v>1.193981871881479</v>
       </c>
       <c r="F23">
-        <v>0.2294064096455989</v>
+        <v>0.2328031938770145</v>
       </c>
       <c r="G23">
-        <v>-0.02510889827670165</v>
+        <v>-0.02538551214646194</v>
       </c>
       <c r="H23">
-        <v>0.1045880044940932</v>
+        <v>0.1042505244406394</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1082,22 +1079,22 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>-0.4309522844393197</v>
+        <v>-0.4341384539574633</v>
       </c>
       <c r="D24">
-        <v>0.2008780684399243</v>
+        <v>0.2007396570588908</v>
       </c>
       <c r="E24">
-        <v>-2.145342633898347</v>
+        <v>-2.1626940103325</v>
       </c>
       <c r="F24">
-        <v>0.03219577397737307</v>
+        <v>0.03083044351450657</v>
       </c>
       <c r="G24">
-        <v>-0.8252028194147529</v>
+        <v>-0.8281167342825478</v>
       </c>
       <c r="H24">
-        <v>-0.03670174946388638</v>
+        <v>-0.04016017363237867</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1108,22 +1105,22 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>0.08346914936268235</v>
+        <v>0.08306994505482146</v>
       </c>
       <c r="D25">
-        <v>0.0425111340765427</v>
+        <v>0.04249114484258038</v>
       </c>
       <c r="E25">
-        <v>1.963465599680154</v>
+        <v>1.95499427851558</v>
       </c>
       <c r="F25">
-        <v>0.04990345102510469</v>
+        <v>0.05089643031781609</v>
       </c>
       <c r="G25">
-        <v>3.526590167285404E-05</v>
+        <v>-0.0003245790735760534</v>
       </c>
       <c r="H25">
-        <v>0.1669030328236918</v>
+        <v>0.166464469183219</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1134,22 +1131,22 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>0.2064958428600581</v>
+        <v>0.2050001058056424</v>
       </c>
       <c r="D26">
-        <v>0.1051236116703738</v>
+        <v>0.1050580955673158</v>
       </c>
       <c r="E26">
-        <v>1.964314577656898</v>
+        <v>1.951302321811925</v>
       </c>
       <c r="F26">
-        <v>0.04980480526773374</v>
+        <v>0.05133450292918935</v>
       </c>
       <c r="G26">
-        <v>0.0001764548777440922</v>
+        <v>-0.001190382074372054</v>
       </c>
       <c r="H26">
-        <v>0.4128152308423721</v>
+        <v>0.4111905936856568</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1160,48 +1157,22 @@
         <v>32</v>
       </c>
       <c r="C27">
-        <v>-0.0002339775561427425</v>
+        <v>-0.0002388772878507717</v>
       </c>
       <c r="D27">
-        <v>0.0003963326326534141</v>
+        <v>0.0003961119588018552</v>
       </c>
       <c r="E27">
-        <v>-0.5903565259723436</v>
+        <v>-0.6030549761065506</v>
       </c>
       <c r="F27">
-        <v>0.555101683444208</v>
+        <v>0.5466257567341972</v>
       </c>
       <c r="G27">
-        <v>-0.001011834261284054</v>
+        <v>-0.001016299699702221</v>
       </c>
       <c r="H27">
-        <v>0.000543879148998569</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28">
-        <v>0.000406967861468795</v>
-      </c>
-      <c r="D28">
-        <v>0.000666080002915163</v>
-      </c>
-      <c r="E28">
-        <v>0.6109894602565175</v>
-      </c>
-      <c r="F28">
-        <v>0.5413627405819883</v>
-      </c>
-      <c r="G28">
-        <v>-0.0009003047518392948</v>
-      </c>
-      <c r="H28">
-        <v>0.001714240474776885</v>
+        <v>0.0005385451240006775</v>
       </c>
     </row>
   </sheetData>

--- a/result_regression.xlsx
+++ b/result_regression.xlsx
@@ -522,22 +522,22 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>11.57389804402606</v>
+        <v>11.61260368958969</v>
       </c>
       <c r="D2">
-        <v>0.04507965374644378</v>
+        <v>0.04250394951438174</v>
       </c>
       <c r="E2">
-        <v>256.7432773358224</v>
+        <v>273.2123443178008</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>11.48542254615283</v>
+        <v>11.52918339279648</v>
       </c>
       <c r="H2">
-        <v>11.66237354189929</v>
+        <v>11.6960239863829</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -548,22 +548,22 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.1066556259052317</v>
+        <v>-0.1068663278366113</v>
       </c>
       <c r="D3">
-        <v>0.01213666411511897</v>
+        <v>0.01167522650428014</v>
       </c>
       <c r="E3">
-        <v>-8.787886431854686</v>
+        <v>-9.153255210717676</v>
       </c>
       <c r="F3">
-        <v>7.811888321013099E-18</v>
+        <v>3.7342706572684E-19</v>
       </c>
       <c r="G3">
-        <v>-0.1304756269670199</v>
+        <v>-0.1297806892369675</v>
       </c>
       <c r="H3">
-        <v>-0.08283562484344349</v>
+        <v>-0.08395196643625506</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -574,22 +574,22 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.02826705140175997</v>
+        <v>-0.04802493060300515</v>
       </c>
       <c r="D4">
-        <v>0.03589215816579992</v>
+        <v>0.03452699751064092</v>
       </c>
       <c r="E4">
-        <v>-0.7875550773844082</v>
+        <v>-1.390938513787777</v>
       </c>
       <c r="F4">
-        <v>0.4311678685797878</v>
+        <v>0.1645936742278324</v>
       </c>
       <c r="G4">
-        <v>-0.09871072830587629</v>
+        <v>-0.1157892775077941</v>
       </c>
       <c r="H4">
-        <v>0.04217662550235635</v>
+        <v>0.01973941630178377</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -600,22 +600,22 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.06250175781972461</v>
+        <v>-0.0870041181251226</v>
       </c>
       <c r="D5">
-        <v>0.0492779942626755</v>
+        <v>0.04740692265037461</v>
       </c>
       <c r="E5">
-        <v>-1.26835027997609</v>
+        <v>-1.835261882885265</v>
       </c>
       <c r="F5">
-        <v>0.2050064258799572</v>
+        <v>0.06680233612724114</v>
       </c>
       <c r="G5">
-        <v>-0.1592171208326538</v>
+        <v>-0.1800472259475857</v>
       </c>
       <c r="H5">
-        <v>0.03421360519320461</v>
+        <v>0.006038989697340541</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -626,22 +626,22 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>-0.4660209343477763</v>
+        <v>-0.468557947899672</v>
       </c>
       <c r="D6">
-        <v>0.01793134540129178</v>
+        <v>0.0172771667856868</v>
       </c>
       <c r="E6">
-        <v>-25.98917838670399</v>
+        <v>-27.12006856864096</v>
       </c>
       <c r="F6">
-        <v>4.172776093639682E-111</v>
+        <v>2.250164363458681E-118</v>
       </c>
       <c r="G6">
-        <v>-0.501213855767261</v>
+        <v>-0.5024669468862289</v>
       </c>
       <c r="H6">
-        <v>-0.4308280129282916</v>
+        <v>-0.4346489489131151</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -652,22 +652,22 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>-0.1775419995451727</v>
+        <v>-0.1826326294594487</v>
       </c>
       <c r="D7">
-        <v>0.01751723666560902</v>
+        <v>0.01688228974400432</v>
       </c>
       <c r="E7">
-        <v>-10.13527435487212</v>
+        <v>-10.8180011259616</v>
       </c>
       <c r="F7">
-        <v>6.484706400076841E-23</v>
+        <v>1.05645752763857E-25</v>
       </c>
       <c r="G7">
-        <v>-0.2119221712312795</v>
+        <v>-0.2157666237607861</v>
       </c>
       <c r="H7">
-        <v>-0.1431618278590659</v>
+        <v>-0.1494986351581112</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -678,22 +678,22 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>0.1706589622229417</v>
+        <v>0.1655723347394298</v>
       </c>
       <c r="D8">
-        <v>0.01869542818822975</v>
+        <v>0.01801130028429716</v>
       </c>
       <c r="E8">
-        <v>9.128379436122517</v>
+        <v>9.192691928176956</v>
       </c>
       <c r="F8">
-        <v>4.607782566532904E-19</v>
+        <v>2.673475524549945E-19</v>
       </c>
       <c r="G8">
-        <v>0.133966415154801</v>
+        <v>0.1302224900187795</v>
       </c>
       <c r="H8">
-        <v>0.2073515092910824</v>
+        <v>0.2009221794600801</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -704,22 +704,22 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>0.3460848794459466</v>
+        <v>0.3327388992973054</v>
       </c>
       <c r="D9">
-        <v>0.01892640076844182</v>
+        <v>0.01822927010726626</v>
       </c>
       <c r="E9">
-        <v>18.28582643262072</v>
+        <v>18.25300175703</v>
       </c>
       <c r="F9">
-        <v>1.303828311396349E-63</v>
+        <v>2.017898405076415E-63</v>
       </c>
       <c r="G9">
-        <v>0.308939014476469</v>
+        <v>0.296961256512433</v>
       </c>
       <c r="H9">
-        <v>0.3832307444154241</v>
+        <v>0.3685165420821778</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -730,22 +730,22 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>-0.004446719843545416</v>
+        <v>0.0129044238839188</v>
       </c>
       <c r="D10">
-        <v>0.01811572442891308</v>
+        <v>0.01741155389458637</v>
       </c>
       <c r="E10">
-        <v>-0.245461883735014</v>
+        <v>0.7411414260924215</v>
       </c>
       <c r="F10">
-        <v>0.8061557270286634</v>
+        <v>0.4588042999443537</v>
       </c>
       <c r="G10">
-        <v>-0.04000151241576631</v>
+        <v>-0.02126832970986096</v>
       </c>
       <c r="H10">
-        <v>0.03110807272867547</v>
+        <v>0.04707717747769856</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -756,22 +756,22 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>0.007302827488936847</v>
+        <v>0.02565365561956511</v>
       </c>
       <c r="D11">
-        <v>0.01841243524636105</v>
+        <v>0.01772248699316997</v>
       </c>
       <c r="E11">
-        <v>0.396624747961036</v>
+        <v>1.447520070374531</v>
       </c>
       <c r="F11">
-        <v>0.691739817542135</v>
+        <v>0.1481054509071895</v>
       </c>
       <c r="G11">
-        <v>-0.02883430401263204</v>
+        <v>-0.009129350236957913</v>
       </c>
       <c r="H11">
-        <v>0.04343995899050573</v>
+        <v>0.06043666147608814</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -782,22 +782,22 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>0.04544613130721653</v>
+        <v>0.0469882581401617</v>
       </c>
       <c r="D12">
-        <v>0.01825091650664581</v>
+        <v>0.01750089526785623</v>
       </c>
       <c r="E12">
-        <v>2.490073925365226</v>
+        <v>2.68490596743726</v>
       </c>
       <c r="F12">
-        <v>0.01295415186710033</v>
+        <v>0.007390720452879381</v>
       </c>
       <c r="G12">
-        <v>0.009626004257202246</v>
+        <v>0.01264015886770418</v>
       </c>
       <c r="H12">
-        <v>0.08126625835723081</v>
+        <v>0.08133635741261921</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -808,22 +808,22 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>0.01979753703663528</v>
+        <v>0.03489466935012281</v>
       </c>
       <c r="D13">
-        <v>0.01780850833969509</v>
+        <v>0.01713132538299481</v>
       </c>
       <c r="E13">
-        <v>1.11168979787637</v>
+        <v>2.036892567854706</v>
       </c>
       <c r="F13">
-        <v>0.2665734537152775</v>
+        <v>0.04195795509743712</v>
       </c>
       <c r="G13">
-        <v>-0.01515429845430206</v>
+        <v>0.001271905719016489</v>
       </c>
       <c r="H13">
-        <v>0.05474937252757262</v>
+        <v>0.06851743298122913</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -834,22 +834,22 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>-0.08713166264558293</v>
+        <v>-0.09294559155136201</v>
       </c>
       <c r="D14">
-        <v>0.07123053340578861</v>
+        <v>0.06861871645074823</v>
       </c>
       <c r="E14">
-        <v>-1.223234734874274</v>
+        <v>-1.354522444588054</v>
       </c>
       <c r="F14">
-        <v>0.2215666568452722</v>
+        <v>0.1759154612992751</v>
       </c>
       <c r="G14">
-        <v>-0.2269321354331576</v>
+        <v>-0.2276199866908985</v>
       </c>
       <c r="H14">
-        <v>0.05266881014199172</v>
+        <v>0.04172880358817449</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -860,22 +860,22 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>-0.02319768389348405</v>
+        <v>-0.02795822549496814</v>
       </c>
       <c r="D15">
-        <v>0.04596432952298019</v>
+        <v>0.04401812722176658</v>
       </c>
       <c r="E15">
-        <v>-0.5046888344555577</v>
+        <v>-0.6351525441805493</v>
       </c>
       <c r="F15">
-        <v>0.6139030416936393</v>
+        <v>0.5254931081058811</v>
       </c>
       <c r="G15">
-        <v>-0.1134094890202207</v>
+        <v>-0.1143503203255607</v>
       </c>
       <c r="H15">
-        <v>0.06701412123325258</v>
+        <v>0.05843386933562439</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -886,22 +886,22 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>-0.01340993042911374</v>
+        <v>-0.009708464917104372</v>
       </c>
       <c r="D16">
-        <v>0.04340871234634348</v>
+        <v>0.04148534311961729</v>
       </c>
       <c r="E16">
-        <v>-0.3089225573456414</v>
+        <v>-0.2340215648960971</v>
       </c>
       <c r="F16">
-        <v>0.7574531453868714</v>
+        <v>0.8150223614279388</v>
       </c>
       <c r="G16">
-        <v>-0.09860595829748685</v>
+        <v>-0.09112959578014995</v>
       </c>
       <c r="H16">
-        <v>0.07178609743925936</v>
+        <v>0.07171266594594122</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -912,22 +912,22 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>0.001315621099709601</v>
+        <v>0.01084301794400373</v>
       </c>
       <c r="D17">
-        <v>0.0213845837986547</v>
+        <v>0.02056277004545776</v>
       </c>
       <c r="E17">
-        <v>0.06152194085686936</v>
+        <v>0.5273130964375545</v>
       </c>
       <c r="F17">
-        <v>0.9509574319206825</v>
+        <v>0.5981083406654331</v>
       </c>
       <c r="G17">
-        <v>-0.04065479218340202</v>
+        <v>-0.02951446411780489</v>
       </c>
       <c r="H17">
-        <v>0.04328603438282122</v>
+        <v>0.05120050000581235</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -938,22 +938,22 @@
         <v>23</v>
       </c>
       <c r="C18">
-        <v>-0.0639339787520963</v>
+        <v>-0.06498736605638671</v>
       </c>
       <c r="D18">
-        <v>0.07532239394686681</v>
+        <v>0.07245785496961739</v>
       </c>
       <c r="E18">
-        <v>-0.8488043913898434</v>
+        <v>-0.8968988397964145</v>
       </c>
       <c r="F18">
-        <v>0.3962196738827167</v>
+        <v>0.3700168079244094</v>
       </c>
       <c r="G18">
-        <v>-0.2117653339558493</v>
+        <v>-0.207196639209223</v>
       </c>
       <c r="H18">
-        <v>0.08389737645165671</v>
+        <v>0.07722190709644965</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -964,22 +964,22 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>-0.3010573496734971</v>
+        <v>-0.2694894936026518</v>
       </c>
       <c r="D19">
-        <v>0.2013789319405021</v>
+        <v>0.1937612790265176</v>
       </c>
       <c r="E19">
-        <v>-1.494979374319282</v>
+        <v>-1.390832548982969</v>
       </c>
       <c r="F19">
-        <v>0.135276297813438</v>
+        <v>0.1646258018378033</v>
       </c>
       <c r="G19">
-        <v>-0.6962933327365012</v>
+        <v>-0.6497747044618338</v>
       </c>
       <c r="H19">
-        <v>0.09417863338950694</v>
+        <v>0.1107957172565303</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -990,22 +990,22 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>-0.06427308807355728</v>
+        <v>-0.01258219199560887</v>
       </c>
       <c r="D20">
-        <v>0.02227053549889732</v>
+        <v>0.02144074276125131</v>
       </c>
       <c r="E20">
-        <v>-2.88601448657306</v>
+        <v>-0.5868356397777401</v>
       </c>
       <c r="F20">
-        <v>0.003996397776674821</v>
+        <v>0.5574637600303601</v>
       </c>
       <c r="G20">
-        <v>-0.1079823127994428</v>
+        <v>-0.05466282556132795</v>
       </c>
       <c r="H20">
-        <v>-0.02056386334767175</v>
+        <v>0.02949844157011022</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1016,22 +1016,22 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>-0.06254012411990473</v>
+        <v>0.0315936306883336</v>
       </c>
       <c r="D21">
-        <v>0.02167671692356911</v>
+        <v>0.02078022592144995</v>
       </c>
       <c r="E21">
-        <v>-2.885128976884171</v>
+        <v>1.520369932827426</v>
       </c>
       <c r="F21">
-        <v>0.00400754966092007</v>
+        <v>0.1287752015265597</v>
       </c>
       <c r="G21">
-        <v>-0.1050838919326993</v>
+        <v>-0.009190640740626844</v>
       </c>
       <c r="H21">
-        <v>-0.0199963563071101</v>
+        <v>0.07237790211729406</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1042,22 +1042,22 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>0.0001413464189845889</v>
+        <v>-0.01316119509432882</v>
       </c>
       <c r="D22">
-        <v>0.01810643135999771</v>
+        <v>0.01742339200228819</v>
       </c>
       <c r="E22">
-        <v>0.007806420612339082</v>
+        <v>-0.7553750206963361</v>
       </c>
       <c r="F22">
-        <v>0.9937732000825565</v>
+        <v>0.450224980821133</v>
       </c>
       <c r="G22">
-        <v>-0.03539520712895979</v>
+        <v>-0.04735718272798579</v>
       </c>
       <c r="H22">
-        <v>0.03567789996692897</v>
+        <v>0.02103479253932814</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1068,22 +1068,22 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>0.03256870856497427</v>
+        <v>0.03541967514512121</v>
       </c>
       <c r="D23">
-        <v>0.03438752773864176</v>
+        <v>0.03315629429027034</v>
       </c>
       <c r="E23">
-        <v>0.9471081728383848</v>
+        <v>1.068263987375545</v>
       </c>
       <c r="F23">
-        <v>0.3438421868425988</v>
+        <v>0.2856927457677853</v>
       </c>
       <c r="G23">
-        <v>-0.03492190825339255</v>
+        <v>-0.0296544636551235</v>
       </c>
       <c r="H23">
-        <v>0.1000593253833411</v>
+        <v>0.1004938139453659</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1094,22 +1094,22 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>-0.4411317080467954</v>
+        <v>-0.4145750880016739</v>
       </c>
       <c r="D24">
-        <v>0.2013572825008116</v>
+        <v>0.1935145026355204</v>
       </c>
       <c r="E24">
-        <v>-2.190790929277749</v>
+        <v>-2.142346347976385</v>
       </c>
       <c r="F24">
-        <v>0.02872707582616717</v>
+        <v>0.03243789607323951</v>
       </c>
       <c r="G24">
-        <v>-0.836325200877597</v>
+        <v>-0.7943759636399237</v>
       </c>
       <c r="H24">
-        <v>-0.04593821521599367</v>
+        <v>-0.03477421236342404</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1120,22 +1120,22 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>0.08476530763985252</v>
+        <v>0.04795059174073463</v>
       </c>
       <c r="D25">
-        <v>0.04326005483653547</v>
+        <v>0.04151338308506358</v>
       </c>
       <c r="E25">
-        <v>1.959435972981329</v>
+        <v>1.155063456102356</v>
       </c>
       <c r="F25">
-        <v>0.05037531975362387</v>
+        <v>0.2483762102828491</v>
       </c>
       <c r="G25">
-        <v>-0.0001389578457206553</v>
+        <v>-0.03352557170790185</v>
       </c>
       <c r="H25">
-        <v>0.1696695731254257</v>
+        <v>0.1294267551893711</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1146,22 +1146,22 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>0.006238747218462036</v>
+        <v>0.01163781714577029</v>
       </c>
       <c r="D26">
-        <v>0.02007691102391133</v>
+        <v>0.01930408159361601</v>
       </c>
       <c r="E26">
-        <v>0.3107423851722893</v>
+        <v>0.6028682115402469</v>
       </c>
       <c r="F26">
-        <v>0.7560696430307267</v>
+        <v>0.546750816195629</v>
       </c>
       <c r="G26">
-        <v>-0.03316516454599458</v>
+        <v>-0.0262493023868503</v>
       </c>
       <c r="H26">
-        <v>0.04564265898291865</v>
+        <v>0.04952493667839087</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1172,22 +1172,22 @@
         <v>32</v>
       </c>
       <c r="C27">
-        <v>-0.02468518495718516</v>
+        <v>-0.01189157064393176</v>
       </c>
       <c r="D27">
-        <v>0.02475025433786852</v>
+        <v>0.02380161855839573</v>
       </c>
       <c r="E27">
-        <v>-0.9973709611305368</v>
+        <v>-0.4996118484445317</v>
       </c>
       <c r="F27">
-        <v>0.3188570977865191</v>
+        <v>0.6174725975351696</v>
       </c>
       <c r="G27">
-        <v>-0.07326122521137132</v>
+        <v>-0.05860577266481434</v>
       </c>
       <c r="H27">
-        <v>0.023890855297001</v>
+        <v>0.03482263137695082</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1198,22 +1198,22 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>0.01038815281852187</v>
+        <v>0.03012174051157027</v>
       </c>
       <c r="D28">
-        <v>0.02765466420770451</v>
+        <v>0.02659375815076035</v>
       </c>
       <c r="E28">
-        <v>0.3756383639483051</v>
+        <v>1.132662045763135</v>
       </c>
       <c r="F28">
-        <v>0.7072757823814447</v>
+        <v>0.2576629731353143</v>
       </c>
       <c r="G28">
-        <v>-0.04388822201913341</v>
+        <v>-0.02207244904327845</v>
       </c>
       <c r="H28">
-        <v>0.06466452765617715</v>
+        <v>0.08231593006641899</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1224,22 +1224,22 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>-0.0007435822649333249</v>
+        <v>0.02847922183899273</v>
       </c>
       <c r="D29">
-        <v>0.03123481829690567</v>
+        <v>0.03010200668909187</v>
       </c>
       <c r="E29">
-        <v>-0.02380619787396007</v>
+        <v>0.9460904760649332</v>
       </c>
       <c r="F29">
-        <v>0.9810125627291334</v>
+        <v>0.3443606759264114</v>
       </c>
       <c r="G29">
-        <v>-0.06204653981075652</v>
+        <v>-0.03060042512947696</v>
       </c>
       <c r="H29">
-        <v>0.06055937528088987</v>
+        <v>0.08755886880746241</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1250,22 +1250,22 @@
         <v>35</v>
       </c>
       <c r="C30">
-        <v>0.2015204414078897</v>
+        <v>0.1046560361465026</v>
       </c>
       <c r="D30">
-        <v>0.1054191614967459</v>
+        <v>0.1014475205064922</v>
       </c>
       <c r="E30">
-        <v>1.91161112028111</v>
+        <v>1.031627344108475</v>
       </c>
       <c r="F30">
-        <v>0.05624880248664894</v>
+        <v>0.3025285625120444</v>
       </c>
       <c r="G30">
-        <v>-0.005380278177583742</v>
+        <v>-0.09444974969873211</v>
       </c>
       <c r="H30">
-        <v>0.4084211609933632</v>
+        <v>0.3037618219917373</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1276,22 +1276,22 @@
         <v>36</v>
       </c>
       <c r="C31">
-        <v>-0.0002348826233598996</v>
+        <v>-0.0008131036012209102</v>
       </c>
       <c r="D31">
-        <v>0.0003968188840776608</v>
+        <v>0.0003774747046634899</v>
       </c>
       <c r="E31">
-        <v>-0.5919139254318629</v>
+        <v>-2.154061162709627</v>
       </c>
       <c r="F31">
-        <v>0.554059404183413</v>
+        <v>0.03150475056709354</v>
       </c>
       <c r="G31">
-        <v>-0.001013698461914135</v>
+        <v>-0.001553953622330221</v>
       </c>
       <c r="H31">
-        <v>0.0005439332151943361</v>
+        <v>-7.225358011159883E-05</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1302,22 +1302,22 @@
         <v>37</v>
       </c>
       <c r="C32">
-        <v>0.000470513975780205</v>
+        <v>0.0001711349591420369</v>
       </c>
       <c r="D32">
-        <v>0.0006670509155302993</v>
+        <v>0.0006417331251556005</v>
       </c>
       <c r="E32">
-        <v>0.7053644104605579</v>
+        <v>0.2666762123282042</v>
       </c>
       <c r="F32">
-        <v>0.4807690936165021</v>
+        <v>0.7897805933264919</v>
       </c>
       <c r="G32">
-        <v>-0.0008386722524523918</v>
+        <v>-0.00108836135529817</v>
       </c>
       <c r="H32">
-        <v>0.001779700204012802</v>
+        <v>0.001430631273582244</v>
       </c>
     </row>
   </sheetData>

--- a/result_regression.xlsx
+++ b/result_regression.xlsx
@@ -522,22 +522,22 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>11.61260368958969</v>
+        <v>11.57389804402606</v>
       </c>
       <c r="D2">
-        <v>0.04250394951438174</v>
+        <v>0.04507965374644378</v>
       </c>
       <c r="E2">
-        <v>273.2123443178008</v>
+        <v>256.7432773358224</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>11.52918339279648</v>
+        <v>11.48542254615283</v>
       </c>
       <c r="H2">
-        <v>11.6960239863829</v>
+        <v>11.66237354189929</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -548,22 +548,22 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.1068663278366113</v>
+        <v>-0.1066556259052317</v>
       </c>
       <c r="D3">
-        <v>0.01167522650428014</v>
+        <v>0.01213666411511897</v>
       </c>
       <c r="E3">
-        <v>-9.153255210717676</v>
+        <v>-8.787886431854686</v>
       </c>
       <c r="F3">
-        <v>3.7342706572684E-19</v>
+        <v>7.811888321013099E-18</v>
       </c>
       <c r="G3">
-        <v>-0.1297806892369675</v>
+        <v>-0.1304756269670199</v>
       </c>
       <c r="H3">
-        <v>-0.08395196643625506</v>
+        <v>-0.08283562484344349</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -574,22 +574,22 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.04802493060300515</v>
+        <v>-0.02826705140175997</v>
       </c>
       <c r="D4">
-        <v>0.03452699751064092</v>
+        <v>0.03589215816579992</v>
       </c>
       <c r="E4">
-        <v>-1.390938513787777</v>
+        <v>-0.7875550773844082</v>
       </c>
       <c r="F4">
-        <v>0.1645936742278324</v>
+        <v>0.4311678685797878</v>
       </c>
       <c r="G4">
-        <v>-0.1157892775077941</v>
+        <v>-0.09871072830587629</v>
       </c>
       <c r="H4">
-        <v>0.01973941630178377</v>
+        <v>0.04217662550235635</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -600,22 +600,22 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.0870041181251226</v>
+        <v>-0.06250175781972461</v>
       </c>
       <c r="D5">
-        <v>0.04740692265037461</v>
+        <v>0.0492779942626755</v>
       </c>
       <c r="E5">
-        <v>-1.835261882885265</v>
+        <v>-1.26835027997609</v>
       </c>
       <c r="F5">
-        <v>0.06680233612724114</v>
+        <v>0.2050064258799572</v>
       </c>
       <c r="G5">
-        <v>-0.1800472259475857</v>
+        <v>-0.1592171208326538</v>
       </c>
       <c r="H5">
-        <v>0.006038989697340541</v>
+        <v>0.03421360519320461</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -626,22 +626,22 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>-0.468557947899672</v>
+        <v>-0.4660209343477763</v>
       </c>
       <c r="D6">
-        <v>0.0172771667856868</v>
+        <v>0.01793134540129178</v>
       </c>
       <c r="E6">
-        <v>-27.12006856864096</v>
+        <v>-25.98917838670399</v>
       </c>
       <c r="F6">
-        <v>2.250164363458681E-118</v>
+        <v>4.172776093639682E-111</v>
       </c>
       <c r="G6">
-        <v>-0.5024669468862289</v>
+        <v>-0.501213855767261</v>
       </c>
       <c r="H6">
-        <v>-0.4346489489131151</v>
+        <v>-0.4308280129282916</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -652,22 +652,22 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>-0.1826326294594487</v>
+        <v>-0.1775419995451727</v>
       </c>
       <c r="D7">
-        <v>0.01688228974400432</v>
+        <v>0.01751723666560902</v>
       </c>
       <c r="E7">
-        <v>-10.8180011259616</v>
+        <v>-10.13527435487212</v>
       </c>
       <c r="F7">
-        <v>1.05645752763857E-25</v>
+        <v>6.484706400076841E-23</v>
       </c>
       <c r="G7">
-        <v>-0.2157666237607861</v>
+        <v>-0.2119221712312795</v>
       </c>
       <c r="H7">
-        <v>-0.1494986351581112</v>
+        <v>-0.1431618278590659</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -678,22 +678,22 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>0.1655723347394298</v>
+        <v>0.1706589622229417</v>
       </c>
       <c r="D8">
-        <v>0.01801130028429716</v>
+        <v>0.01869542818822975</v>
       </c>
       <c r="E8">
-        <v>9.192691928176956</v>
+        <v>9.128379436122517</v>
       </c>
       <c r="F8">
-        <v>2.673475524549945E-19</v>
+        <v>4.607782566532904E-19</v>
       </c>
       <c r="G8">
-        <v>0.1302224900187795</v>
+        <v>0.133966415154801</v>
       </c>
       <c r="H8">
-        <v>0.2009221794600801</v>
+        <v>0.2073515092910824</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -704,22 +704,22 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>0.3327388992973054</v>
+        <v>0.3460848794459466</v>
       </c>
       <c r="D9">
-        <v>0.01822927010726626</v>
+        <v>0.01892640076844182</v>
       </c>
       <c r="E9">
-        <v>18.25300175703</v>
+        <v>18.28582643262072</v>
       </c>
       <c r="F9">
-        <v>2.017898405076415E-63</v>
+        <v>1.303828311396349E-63</v>
       </c>
       <c r="G9">
-        <v>0.296961256512433</v>
+        <v>0.308939014476469</v>
       </c>
       <c r="H9">
-        <v>0.3685165420821778</v>
+        <v>0.3832307444154241</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -730,22 +730,22 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>0.0129044238839188</v>
+        <v>-0.004446719843545416</v>
       </c>
       <c r="D10">
-        <v>0.01741155389458637</v>
+        <v>0.01811572442891308</v>
       </c>
       <c r="E10">
-        <v>0.7411414260924215</v>
+        <v>-0.245461883735014</v>
       </c>
       <c r="F10">
-        <v>0.4588042999443537</v>
+        <v>0.8061557270286634</v>
       </c>
       <c r="G10">
-        <v>-0.02126832970986096</v>
+        <v>-0.04000151241576631</v>
       </c>
       <c r="H10">
-        <v>0.04707717747769856</v>
+        <v>0.03110807272867547</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -756,22 +756,22 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>0.02565365561956511</v>
+        <v>0.007302827488936847</v>
       </c>
       <c r="D11">
-        <v>0.01772248699316997</v>
+        <v>0.01841243524636105</v>
       </c>
       <c r="E11">
-        <v>1.447520070374531</v>
+        <v>0.396624747961036</v>
       </c>
       <c r="F11">
-        <v>0.1481054509071895</v>
+        <v>0.691739817542135</v>
       </c>
       <c r="G11">
-        <v>-0.009129350236957913</v>
+        <v>-0.02883430401263204</v>
       </c>
       <c r="H11">
-        <v>0.06043666147608814</v>
+        <v>0.04343995899050573</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -782,22 +782,22 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>0.0469882581401617</v>
+        <v>0.04544613130721653</v>
       </c>
       <c r="D12">
-        <v>0.01750089526785623</v>
+        <v>0.01825091650664581</v>
       </c>
       <c r="E12">
-        <v>2.68490596743726</v>
+        <v>2.490073925365226</v>
       </c>
       <c r="F12">
-        <v>0.007390720452879381</v>
+        <v>0.01295415186710033</v>
       </c>
       <c r="G12">
-        <v>0.01264015886770418</v>
+        <v>0.009626004257202246</v>
       </c>
       <c r="H12">
-        <v>0.08133635741261921</v>
+        <v>0.08126625835723081</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -808,22 +808,22 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>0.03489466935012281</v>
+        <v>0.01979753703663528</v>
       </c>
       <c r="D13">
-        <v>0.01713132538299481</v>
+        <v>0.01780850833969509</v>
       </c>
       <c r="E13">
-        <v>2.036892567854706</v>
+        <v>1.11168979787637</v>
       </c>
       <c r="F13">
-        <v>0.04195795509743712</v>
+        <v>0.2665734537152775</v>
       </c>
       <c r="G13">
-        <v>0.001271905719016489</v>
+        <v>-0.01515429845430206</v>
       </c>
       <c r="H13">
-        <v>0.06851743298122913</v>
+        <v>0.05474937252757262</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -834,22 +834,22 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>-0.09294559155136201</v>
+        <v>-0.08713166264558293</v>
       </c>
       <c r="D14">
-        <v>0.06861871645074823</v>
+        <v>0.07123053340578861</v>
       </c>
       <c r="E14">
-        <v>-1.354522444588054</v>
+        <v>-1.223234734874274</v>
       </c>
       <c r="F14">
-        <v>0.1759154612992751</v>
+        <v>0.2215666568452722</v>
       </c>
       <c r="G14">
-        <v>-0.2276199866908985</v>
+        <v>-0.2269321354331576</v>
       </c>
       <c r="H14">
-        <v>0.04172880358817449</v>
+        <v>0.05266881014199172</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -860,22 +860,22 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>-0.02795822549496814</v>
+        <v>-0.02319768389348405</v>
       </c>
       <c r="D15">
-        <v>0.04401812722176658</v>
+        <v>0.04596432952298019</v>
       </c>
       <c r="E15">
-        <v>-0.6351525441805493</v>
+        <v>-0.5046888344555577</v>
       </c>
       <c r="F15">
-        <v>0.5254931081058811</v>
+        <v>0.6139030416936393</v>
       </c>
       <c r="G15">
-        <v>-0.1143503203255607</v>
+        <v>-0.1134094890202207</v>
       </c>
       <c r="H15">
-        <v>0.05843386933562439</v>
+        <v>0.06701412123325258</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -886,22 +886,22 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>-0.009708464917104372</v>
+        <v>-0.01340993042911374</v>
       </c>
       <c r="D16">
-        <v>0.04148534311961729</v>
+        <v>0.04340871234634348</v>
       </c>
       <c r="E16">
-        <v>-0.2340215648960971</v>
+        <v>-0.3089225573456414</v>
       </c>
       <c r="F16">
-        <v>0.8150223614279388</v>
+        <v>0.7574531453868714</v>
       </c>
       <c r="G16">
-        <v>-0.09112959578014995</v>
+        <v>-0.09860595829748685</v>
       </c>
       <c r="H16">
-        <v>0.07171266594594122</v>
+        <v>0.07178609743925936</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -912,22 +912,22 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>0.01084301794400373</v>
+        <v>0.001315621099709601</v>
       </c>
       <c r="D17">
-        <v>0.02056277004545776</v>
+        <v>0.0213845837986547</v>
       </c>
       <c r="E17">
-        <v>0.5273130964375545</v>
+        <v>0.06152194085686936</v>
       </c>
       <c r="F17">
-        <v>0.5981083406654331</v>
+        <v>0.9509574319206825</v>
       </c>
       <c r="G17">
-        <v>-0.02951446411780489</v>
+        <v>-0.04065479218340202</v>
       </c>
       <c r="H17">
-        <v>0.05120050000581235</v>
+        <v>0.04328603438282122</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -938,22 +938,22 @@
         <v>23</v>
       </c>
       <c r="C18">
-        <v>-0.06498736605638671</v>
+        <v>-0.0639339787520963</v>
       </c>
       <c r="D18">
-        <v>0.07245785496961739</v>
+        <v>0.07532239394686681</v>
       </c>
       <c r="E18">
-        <v>-0.8968988397964145</v>
+        <v>-0.8488043913898434</v>
       </c>
       <c r="F18">
-        <v>0.3700168079244094</v>
+        <v>0.3962196738827167</v>
       </c>
       <c r="G18">
-        <v>-0.207196639209223</v>
+        <v>-0.2117653339558493</v>
       </c>
       <c r="H18">
-        <v>0.07722190709644965</v>
+        <v>0.08389737645165671</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -964,22 +964,22 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>-0.2694894936026518</v>
+        <v>-0.3010573496734971</v>
       </c>
       <c r="D19">
-        <v>0.1937612790265176</v>
+        <v>0.2013789319405021</v>
       </c>
       <c r="E19">
-        <v>-1.390832548982969</v>
+        <v>-1.494979374319282</v>
       </c>
       <c r="F19">
-        <v>0.1646258018378033</v>
+        <v>0.135276297813438</v>
       </c>
       <c r="G19">
-        <v>-0.6497747044618338</v>
+        <v>-0.6962933327365012</v>
       </c>
       <c r="H19">
-        <v>0.1107957172565303</v>
+        <v>0.09417863338950694</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -990,22 +990,22 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>-0.01258219199560887</v>
+        <v>-0.06427308807355728</v>
       </c>
       <c r="D20">
-        <v>0.02144074276125131</v>
+        <v>0.02227053549889732</v>
       </c>
       <c r="E20">
-        <v>-0.5868356397777401</v>
+        <v>-2.88601448657306</v>
       </c>
       <c r="F20">
-        <v>0.5574637600303601</v>
+        <v>0.003996397776674821</v>
       </c>
       <c r="G20">
-        <v>-0.05466282556132795</v>
+        <v>-0.1079823127994428</v>
       </c>
       <c r="H20">
-        <v>0.02949844157011022</v>
+        <v>-0.02056386334767175</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1016,22 +1016,22 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>0.0315936306883336</v>
+        <v>-0.06254012411990473</v>
       </c>
       <c r="D21">
-        <v>0.02078022592144995</v>
+        <v>0.02167671692356911</v>
       </c>
       <c r="E21">
-        <v>1.520369932827426</v>
+        <v>-2.885128976884171</v>
       </c>
       <c r="F21">
-        <v>0.1287752015265597</v>
+        <v>0.00400754966092007</v>
       </c>
       <c r="G21">
-        <v>-0.009190640740626844</v>
+        <v>-0.1050838919326993</v>
       </c>
       <c r="H21">
-        <v>0.07237790211729406</v>
+        <v>-0.0199963563071101</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1042,22 +1042,22 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>-0.01316119509432882</v>
+        <v>0.0001413464189845889</v>
       </c>
       <c r="D22">
-        <v>0.01742339200228819</v>
+        <v>0.01810643135999771</v>
       </c>
       <c r="E22">
-        <v>-0.7553750206963361</v>
+        <v>0.007806420612339082</v>
       </c>
       <c r="F22">
-        <v>0.450224980821133</v>
+        <v>0.9937732000825565</v>
       </c>
       <c r="G22">
-        <v>-0.04735718272798579</v>
+        <v>-0.03539520712895979</v>
       </c>
       <c r="H22">
-        <v>0.02103479253932814</v>
+        <v>0.03567789996692897</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1068,22 +1068,22 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>0.03541967514512121</v>
+        <v>0.03256870856497427</v>
       </c>
       <c r="D23">
-        <v>0.03315629429027034</v>
+        <v>0.03438752773864176</v>
       </c>
       <c r="E23">
-        <v>1.068263987375545</v>
+        <v>0.9471081728383848</v>
       </c>
       <c r="F23">
-        <v>0.2856927457677853</v>
+        <v>0.3438421868425988</v>
       </c>
       <c r="G23">
-        <v>-0.0296544636551235</v>
+        <v>-0.03492190825339255</v>
       </c>
       <c r="H23">
-        <v>0.1004938139453659</v>
+        <v>0.1000593253833411</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1094,22 +1094,22 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>-0.4145750880016739</v>
+        <v>-0.4411317080467954</v>
       </c>
       <c r="D24">
-        <v>0.1935145026355204</v>
+        <v>0.2013572825008116</v>
       </c>
       <c r="E24">
-        <v>-2.142346347976385</v>
+        <v>-2.190790929277749</v>
       </c>
       <c r="F24">
-        <v>0.03243789607323951</v>
+        <v>0.02872707582616717</v>
       </c>
       <c r="G24">
-        <v>-0.7943759636399237</v>
+        <v>-0.836325200877597</v>
       </c>
       <c r="H24">
-        <v>-0.03477421236342404</v>
+        <v>-0.04593821521599367</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1120,22 +1120,22 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>0.04795059174073463</v>
+        <v>0.08476530763985252</v>
       </c>
       <c r="D25">
-        <v>0.04151338308506358</v>
+        <v>0.04326005483653547</v>
       </c>
       <c r="E25">
-        <v>1.155063456102356</v>
+        <v>1.959435972981329</v>
       </c>
       <c r="F25">
-        <v>0.2483762102828491</v>
+        <v>0.05037531975362387</v>
       </c>
       <c r="G25">
-        <v>-0.03352557170790185</v>
+        <v>-0.0001389578457206553</v>
       </c>
       <c r="H25">
-        <v>0.1294267551893711</v>
+        <v>0.1696695731254257</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1146,22 +1146,22 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>0.01163781714577029</v>
+        <v>0.006238747218462036</v>
       </c>
       <c r="D26">
-        <v>0.01930408159361601</v>
+        <v>0.02007691102391133</v>
       </c>
       <c r="E26">
-        <v>0.6028682115402469</v>
+        <v>0.3107423851722893</v>
       </c>
       <c r="F26">
-        <v>0.546750816195629</v>
+        <v>0.7560696430307267</v>
       </c>
       <c r="G26">
-        <v>-0.0262493023868503</v>
+        <v>-0.03316516454599458</v>
       </c>
       <c r="H26">
-        <v>0.04952493667839087</v>
+        <v>0.04564265898291865</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1172,22 +1172,22 @@
         <v>32</v>
       </c>
       <c r="C27">
-        <v>-0.01189157064393176</v>
+        <v>-0.02468518495718516</v>
       </c>
       <c r="D27">
-        <v>0.02380161855839573</v>
+        <v>0.02475025433786852</v>
       </c>
       <c r="E27">
-        <v>-0.4996118484445317</v>
+        <v>-0.9973709611305368</v>
       </c>
       <c r="F27">
-        <v>0.6174725975351696</v>
+        <v>0.3188570977865191</v>
       </c>
       <c r="G27">
-        <v>-0.05860577266481434</v>
+        <v>-0.07326122521137132</v>
       </c>
       <c r="H27">
-        <v>0.03482263137695082</v>
+        <v>0.023890855297001</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1198,22 +1198,22 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>0.03012174051157027</v>
+        <v>0.01038815281852187</v>
       </c>
       <c r="D28">
-        <v>0.02659375815076035</v>
+        <v>0.02765466420770451</v>
       </c>
       <c r="E28">
-        <v>1.132662045763135</v>
+        <v>0.3756383639483051</v>
       </c>
       <c r="F28">
-        <v>0.2576629731353143</v>
+        <v>0.7072757823814447</v>
       </c>
       <c r="G28">
-        <v>-0.02207244904327845</v>
+        <v>-0.04388822201913341</v>
       </c>
       <c r="H28">
-        <v>0.08231593006641899</v>
+        <v>0.06466452765617715</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1224,22 +1224,22 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>0.02847922183899273</v>
+        <v>-0.0007435822649333249</v>
       </c>
       <c r="D29">
-        <v>0.03010200668909187</v>
+        <v>0.03123481829690567</v>
       </c>
       <c r="E29">
-        <v>0.9460904760649332</v>
+        <v>-0.02380619787396007</v>
       </c>
       <c r="F29">
-        <v>0.3443606759264114</v>
+        <v>0.9810125627291334</v>
       </c>
       <c r="G29">
-        <v>-0.03060042512947696</v>
+        <v>-0.06204653981075652</v>
       </c>
       <c r="H29">
-        <v>0.08755886880746241</v>
+        <v>0.06055937528088987</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1250,22 +1250,22 @@
         <v>35</v>
       </c>
       <c r="C30">
-        <v>0.1046560361465026</v>
+        <v>0.2015204414078897</v>
       </c>
       <c r="D30">
-        <v>0.1014475205064922</v>
+        <v>0.1054191614967459</v>
       </c>
       <c r="E30">
-        <v>1.031627344108475</v>
+        <v>1.91161112028111</v>
       </c>
       <c r="F30">
-        <v>0.3025285625120444</v>
+        <v>0.05624880248664894</v>
       </c>
       <c r="G30">
-        <v>-0.09444974969873211</v>
+        <v>-0.005380278177583742</v>
       </c>
       <c r="H30">
-        <v>0.3037618219917373</v>
+        <v>0.4084211609933632</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1276,22 +1276,22 @@
         <v>36</v>
       </c>
       <c r="C31">
-        <v>-0.0008131036012209102</v>
+        <v>-0.0002348826233598996</v>
       </c>
       <c r="D31">
-        <v>0.0003774747046634899</v>
+        <v>0.0003968188840776608</v>
       </c>
       <c r="E31">
-        <v>-2.154061162709627</v>
+        <v>-0.5919139254318629</v>
       </c>
       <c r="F31">
-        <v>0.03150475056709354</v>
+        <v>0.554059404183413</v>
       </c>
       <c r="G31">
-        <v>-0.001553953622330221</v>
+        <v>-0.001013698461914135</v>
       </c>
       <c r="H31">
-        <v>-7.225358011159883E-05</v>
+        <v>0.0005439332151943361</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1302,22 +1302,22 @@
         <v>37</v>
       </c>
       <c r="C32">
-        <v>0.0001711349591420369</v>
+        <v>0.000470513975780205</v>
       </c>
       <c r="D32">
-        <v>0.0006417331251556005</v>
+        <v>0.0006670509155302993</v>
       </c>
       <c r="E32">
-        <v>0.2666762123282042</v>
+        <v>0.7053644104605579</v>
       </c>
       <c r="F32">
-        <v>0.7897805933264919</v>
+        <v>0.4807690936165021</v>
       </c>
       <c r="G32">
-        <v>-0.00108836135529817</v>
+        <v>-0.0008386722524523918</v>
       </c>
       <c r="H32">
-        <v>0.001430631273582244</v>
+        <v>0.001779700204012802</v>
       </c>
     </row>
   </sheetData>

--- a/result_regression.xlsx
+++ b/result_regression.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>CONTENT</t>
   </si>
@@ -101,33 +101,6 @@
   </si>
   <si>
     <t>ETHNICITY[T.Unknown]</t>
-  </si>
-  <si>
-    <t>EXEMPT[T.Maybe]</t>
-  </si>
-  <si>
-    <t>PROMOTION[T.Yes]</t>
-  </si>
-  <si>
-    <t>PERFORMANCE[T.2]</t>
-  </si>
-  <si>
-    <t>PERFORMANCE[T.3]</t>
-  </si>
-  <si>
-    <t>PERFORMANCE[T.4]</t>
-  </si>
-  <si>
-    <t>PERFORMANCE[T.5]</t>
-  </si>
-  <si>
-    <t>High_Potential[T.Yes]</t>
-  </si>
-  <si>
-    <t>Engagement_Score</t>
-  </si>
-  <si>
-    <t>TENURE</t>
   </si>
 </sst>
 </file>
@@ -485,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,22 +495,22 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>11.57389804402606</v>
+        <v>11.55988084655664</v>
       </c>
       <c r="D2">
-        <v>0.04507965374644378</v>
+        <v>0.01890310900412871</v>
       </c>
       <c r="E2">
-        <v>256.7432773358224</v>
+        <v>611.5333114797041</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>11.48542254615283</v>
+        <v>11.52278148631601</v>
       </c>
       <c r="H2">
-        <v>11.66237354189929</v>
+        <v>11.59698020679727</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -548,22 +521,22 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.1066556259052317</v>
+        <v>-0.1080968759434591</v>
       </c>
       <c r="D3">
-        <v>0.01213666411511897</v>
+        <v>0.0120309862464822</v>
       </c>
       <c r="E3">
-        <v>-8.787886431854686</v>
+        <v>-8.984872372792049</v>
       </c>
       <c r="F3">
-        <v>7.811888321013099E-18</v>
+        <v>1.495658553780395E-18</v>
       </c>
       <c r="G3">
-        <v>-0.1304756269670199</v>
+        <v>-0.1317089649765829</v>
       </c>
       <c r="H3">
-        <v>-0.08283562484344349</v>
+        <v>-0.08448478691033529</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -574,22 +547,22 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.02826705140175997</v>
+        <v>-0.04122982919626061</v>
       </c>
       <c r="D4">
-        <v>0.03589215816579992</v>
+        <v>0.03321795624121423</v>
       </c>
       <c r="E4">
-        <v>-0.7875550773844082</v>
+        <v>-1.241191026228937</v>
       </c>
       <c r="F4">
-        <v>0.4311678685797878</v>
+        <v>0.2148589547473078</v>
       </c>
       <c r="G4">
-        <v>-0.09871072830587629</v>
+        <v>-0.1064235983683681</v>
       </c>
       <c r="H4">
-        <v>0.04217662550235635</v>
+        <v>0.02396393997584684</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -600,22 +573,22 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.06250175781972461</v>
+        <v>-0.06106508713268161</v>
       </c>
       <c r="D5">
-        <v>0.0492779942626755</v>
+        <v>0.04943456552974644</v>
       </c>
       <c r="E5">
-        <v>-1.26835027997609</v>
+        <v>-1.235271039166647</v>
       </c>
       <c r="F5">
-        <v>0.2050064258799572</v>
+        <v>0.2170523671886194</v>
       </c>
       <c r="G5">
-        <v>-0.1592171208326538</v>
+        <v>-0.1580856753611374</v>
       </c>
       <c r="H5">
-        <v>0.03421360519320461</v>
+        <v>0.03595550109577421</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -626,22 +599,22 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>-0.4660209343477763</v>
+        <v>-0.4625840441908732</v>
       </c>
       <c r="D6">
-        <v>0.01793134540129178</v>
+        <v>0.01779773835485147</v>
       </c>
       <c r="E6">
-        <v>-25.98917838670399</v>
+        <v>-25.99117005587274</v>
       </c>
       <c r="F6">
-        <v>4.172776093639682E-111</v>
+        <v>1.59342443378899E-111</v>
       </c>
       <c r="G6">
-        <v>-0.501213855767261</v>
+        <v>-0.4975139970653411</v>
       </c>
       <c r="H6">
-        <v>-0.4308280129282916</v>
+        <v>-0.4276540913164052</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -652,22 +625,22 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>-0.1775419995451727</v>
+        <v>-0.175854353566714</v>
       </c>
       <c r="D7">
-        <v>0.01751723666560902</v>
+        <v>0.0175811053473724</v>
       </c>
       <c r="E7">
-        <v>-10.13527435487212</v>
+        <v>-10.00246287660158</v>
       </c>
       <c r="F7">
-        <v>6.484706400076841E-23</v>
+        <v>2.09442889822871E-22</v>
       </c>
       <c r="G7">
-        <v>-0.2119221712312795</v>
+        <v>-0.2103591411425677</v>
       </c>
       <c r="H7">
-        <v>-0.1431618278590659</v>
+        <v>-0.1413495659908603</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -678,22 +651,22 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>0.1706589622229417</v>
+        <v>0.1743723699731504</v>
       </c>
       <c r="D8">
-        <v>0.01869542818822975</v>
+        <v>0.01858204523663447</v>
       </c>
       <c r="E8">
-        <v>9.128379436122517</v>
+        <v>9.383916988285854</v>
       </c>
       <c r="F8">
-        <v>4.607782566532904E-19</v>
+        <v>5.04554026249633E-20</v>
       </c>
       <c r="G8">
-        <v>0.133966415154801</v>
+        <v>0.1379031314954456</v>
       </c>
       <c r="H8">
-        <v>0.2073515092910824</v>
+        <v>0.2108416084508553</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -704,22 +677,22 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>0.3460848794459466</v>
+        <v>0.3479432848451341</v>
       </c>
       <c r="D9">
-        <v>0.01892640076844182</v>
+        <v>0.01857810753273208</v>
       </c>
       <c r="E9">
-        <v>18.28582643262072</v>
+        <v>18.72867213369853</v>
       </c>
       <c r="F9">
-        <v>1.303828311396349E-63</v>
+        <v>2.457771592784569E-66</v>
       </c>
       <c r="G9">
-        <v>0.308939014476469</v>
+        <v>0.3114817745297948</v>
       </c>
       <c r="H9">
-        <v>0.3832307444154241</v>
+        <v>0.3844047951604735</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -730,22 +703,22 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>-0.004446719843545416</v>
+        <v>-0.005660190201221216</v>
       </c>
       <c r="D10">
-        <v>0.01811572442891308</v>
+        <v>0.01807752178348518</v>
       </c>
       <c r="E10">
-        <v>-0.245461883735014</v>
+        <v>-0.3131065346795552</v>
       </c>
       <c r="F10">
-        <v>0.8061557270286634</v>
+        <v>0.7542723478138738</v>
       </c>
       <c r="G10">
-        <v>-0.04000151241576631</v>
+        <v>-0.04113924778676992</v>
       </c>
       <c r="H10">
-        <v>0.03110807272867547</v>
+        <v>0.02981886738432749</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -756,22 +729,22 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>0.007302827488936847</v>
+        <v>0.006022726429373071</v>
       </c>
       <c r="D11">
-        <v>0.01841243524636105</v>
+        <v>0.01834951910904412</v>
       </c>
       <c r="E11">
-        <v>0.396624747961036</v>
+        <v>0.328222575947758</v>
       </c>
       <c r="F11">
-        <v>0.691739817542135</v>
+        <v>0.742819809353062</v>
       </c>
       <c r="G11">
-        <v>-0.02883430401263204</v>
+        <v>-0.02999015481254856</v>
       </c>
       <c r="H11">
-        <v>0.04343995899050573</v>
+        <v>0.0420356076712947</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -782,22 +755,22 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>0.04544613130721653</v>
+        <v>0.04186336955492423</v>
       </c>
       <c r="D12">
-        <v>0.01825091650664581</v>
+        <v>0.01815270863434669</v>
       </c>
       <c r="E12">
-        <v>2.490073925365226</v>
+        <v>2.306177573726637</v>
       </c>
       <c r="F12">
-        <v>0.01295415186710033</v>
+        <v>0.02132740940898969</v>
       </c>
       <c r="G12">
-        <v>0.009626004257202246</v>
+        <v>0.006236749784506314</v>
       </c>
       <c r="H12">
-        <v>0.08126625835723081</v>
+        <v>0.07748998932534215</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -808,22 +781,22 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>0.01979753703663528</v>
+        <v>0.01796305835512824</v>
       </c>
       <c r="D13">
-        <v>0.01780850833969509</v>
+        <v>0.0176962145193594</v>
       </c>
       <c r="E13">
-        <v>1.11168979787637</v>
+        <v>1.015079147886511</v>
       </c>
       <c r="F13">
-        <v>0.2665734537152775</v>
+        <v>0.3103412066931863</v>
       </c>
       <c r="G13">
-        <v>-0.01515429845430206</v>
+        <v>-0.01676764320332026</v>
       </c>
       <c r="H13">
-        <v>0.05474937252757262</v>
+        <v>0.05269375991357673</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -834,22 +807,22 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>-0.08713166264558293</v>
+        <v>0.05017483233691838</v>
       </c>
       <c r="D14">
-        <v>0.07123053340578861</v>
+        <v>0.03018793515249205</v>
       </c>
       <c r="E14">
-        <v>-1.223234734874274</v>
+        <v>1.66208228828716</v>
       </c>
       <c r="F14">
-        <v>0.2215666568452722</v>
+        <v>0.09684488708426305</v>
       </c>
       <c r="G14">
-        <v>-0.2269321354331576</v>
+        <v>-0.00907219845037293</v>
       </c>
       <c r="H14">
-        <v>0.05266881014199172</v>
+        <v>0.1094218631242097</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -860,22 +833,22 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>-0.02319768389348405</v>
+        <v>0.03071645303313258</v>
       </c>
       <c r="D15">
-        <v>0.04596432952298019</v>
+        <v>0.03635621941257384</v>
       </c>
       <c r="E15">
-        <v>-0.5046888344555577</v>
+        <v>0.8448747842716909</v>
       </c>
       <c r="F15">
-        <v>0.6139030416936393</v>
+        <v>0.3984055395489106</v>
       </c>
       <c r="G15">
-        <v>-0.1134094890202207</v>
+        <v>-0.04063649111377657</v>
       </c>
       <c r="H15">
-        <v>0.06701412123325258</v>
+        <v>0.1020693971800417</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -886,22 +859,22 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>-0.01340993042911374</v>
+        <v>0.06440684942402061</v>
       </c>
       <c r="D16">
-        <v>0.04340871234634348</v>
+        <v>0.01819784691219105</v>
       </c>
       <c r="E16">
-        <v>-0.3089225573456414</v>
+        <v>3.539256579901953</v>
       </c>
       <c r="F16">
-        <v>0.7574531453868714</v>
+        <v>0.0004218223942470434</v>
       </c>
       <c r="G16">
-        <v>-0.09860595829748685</v>
+        <v>0.02869164098652026</v>
       </c>
       <c r="H16">
-        <v>0.07178609743925936</v>
+        <v>0.100122057861521</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -912,22 +885,22 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>0.001315621099709601</v>
+        <v>0.001301600772193129</v>
       </c>
       <c r="D17">
-        <v>0.0213845837986547</v>
+        <v>0.01781790544950959</v>
       </c>
       <c r="E17">
-        <v>0.06152194085686936</v>
+        <v>0.07305015597267936</v>
       </c>
       <c r="F17">
-        <v>0.9509574319206825</v>
+        <v>0.9417824546513855</v>
       </c>
       <c r="G17">
-        <v>-0.04065479218340202</v>
+        <v>-0.03366793216868423</v>
       </c>
       <c r="H17">
-        <v>0.04328603438282122</v>
+        <v>0.03627113371307049</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -938,22 +911,22 @@
         <v>23</v>
       </c>
       <c r="C18">
-        <v>-0.0639339787520963</v>
+        <v>0.01945837930377126</v>
       </c>
       <c r="D18">
-        <v>0.07532239394686681</v>
+        <v>0.04707599596146476</v>
       </c>
       <c r="E18">
-        <v>-0.8488043913898434</v>
+        <v>0.4133397266772519</v>
       </c>
       <c r="F18">
-        <v>0.3962196738827167</v>
+        <v>0.6794563009898246</v>
       </c>
       <c r="G18">
-        <v>-0.2117653339558493</v>
+        <v>-0.07293326550341124</v>
       </c>
       <c r="H18">
-        <v>0.08389737645165671</v>
+        <v>0.1118500241109538</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -964,22 +937,22 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>-0.3010573496734971</v>
+        <v>-0.2335495638357177</v>
       </c>
       <c r="D19">
-        <v>0.2013789319405021</v>
+        <v>0.1879029156048122</v>
       </c>
       <c r="E19">
-        <v>-1.494979374319282</v>
+        <v>-1.242926769305204</v>
       </c>
       <c r="F19">
-        <v>0.135276297813438</v>
+        <v>0.2142188894734471</v>
       </c>
       <c r="G19">
-        <v>-0.6962933327365012</v>
+        <v>-0.6023290040201548</v>
       </c>
       <c r="H19">
-        <v>0.09417863338950694</v>
+        <v>0.1352298763487195</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -990,22 +963,22 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>-0.06427308807355728</v>
+        <v>-0.05555256826084561</v>
       </c>
       <c r="D20">
-        <v>0.02227053549889732</v>
+        <v>0.0218456843106389</v>
       </c>
       <c r="E20">
-        <v>-2.88601448657306</v>
+        <v>-2.542953906634611</v>
       </c>
       <c r="F20">
-        <v>0.003996397776674821</v>
+        <v>0.0111585719945238</v>
       </c>
       <c r="G20">
-        <v>-0.1079823127994428</v>
+        <v>-0.09842704524590115</v>
       </c>
       <c r="H20">
-        <v>-0.02056386334767175</v>
+        <v>-0.01267809127579006</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1016,22 +989,22 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>-0.06254012411990473</v>
+        <v>-0.06032822218108549</v>
       </c>
       <c r="D21">
-        <v>0.02167671692356911</v>
+        <v>0.0211230127948529</v>
       </c>
       <c r="E21">
-        <v>-2.885128976884171</v>
+        <v>-2.856042495783833</v>
       </c>
       <c r="F21">
-        <v>0.00400754966092007</v>
+        <v>0.004388391755088156</v>
       </c>
       <c r="G21">
-        <v>-0.1050838919326993</v>
+        <v>-0.10178437951862</v>
       </c>
       <c r="H21">
-        <v>-0.0199963563071101</v>
+        <v>-0.01887206484355103</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1042,22 +1015,22 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>0.0001413464189845889</v>
+        <v>0.004388556155443771</v>
       </c>
       <c r="D22">
-        <v>0.01810643135999771</v>
+        <v>0.01749745943910714</v>
       </c>
       <c r="E22">
-        <v>0.007806420612339082</v>
+        <v>0.2508110489249238</v>
       </c>
       <c r="F22">
-        <v>0.9937732000825565</v>
+        <v>0.8020175098606849</v>
       </c>
       <c r="G22">
-        <v>-0.03539520712895979</v>
+        <v>-0.02995206743644782</v>
       </c>
       <c r="H22">
-        <v>0.03567789996692897</v>
+        <v>0.03872917974733536</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1068,256 +1041,22 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>0.03256870856497427</v>
+        <v>0.03869791258332594</v>
       </c>
       <c r="D23">
-        <v>0.03438752773864176</v>
+        <v>0.03320905878507133</v>
       </c>
       <c r="E23">
-        <v>0.9471081728383848</v>
+        <v>1.165281823666802</v>
       </c>
       <c r="F23">
-        <v>0.3438421868425988</v>
+        <v>0.2442140230175593</v>
       </c>
       <c r="G23">
-        <v>-0.03492190825339255</v>
+        <v>-0.02647839438557471</v>
       </c>
       <c r="H23">
-        <v>0.1000593253833411</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24">
-        <v>-0.4411317080467954</v>
-      </c>
-      <c r="D24">
-        <v>0.2013572825008116</v>
-      </c>
-      <c r="E24">
-        <v>-2.190790929277749</v>
-      </c>
-      <c r="F24">
-        <v>0.02872707582616717</v>
-      </c>
-      <c r="G24">
-        <v>-0.836325200877597</v>
-      </c>
-      <c r="H24">
-        <v>-0.04593821521599367</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25">
-        <v>0.08476530763985252</v>
-      </c>
-      <c r="D25">
-        <v>0.04326005483653547</v>
-      </c>
-      <c r="E25">
-        <v>1.959435972981329</v>
-      </c>
-      <c r="F25">
-        <v>0.05037531975362387</v>
-      </c>
-      <c r="G25">
-        <v>-0.0001389578457206553</v>
-      </c>
-      <c r="H25">
-        <v>0.1696695731254257</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26">
-        <v>0.006238747218462036</v>
-      </c>
-      <c r="D26">
-        <v>0.02007691102391133</v>
-      </c>
-      <c r="E26">
-        <v>0.3107423851722893</v>
-      </c>
-      <c r="F26">
-        <v>0.7560696430307267</v>
-      </c>
-      <c r="G26">
-        <v>-0.03316516454599458</v>
-      </c>
-      <c r="H26">
-        <v>0.04564265898291865</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27">
-        <v>-0.02468518495718516</v>
-      </c>
-      <c r="D27">
-        <v>0.02475025433786852</v>
-      </c>
-      <c r="E27">
-        <v>-0.9973709611305368</v>
-      </c>
-      <c r="F27">
-        <v>0.3188570977865191</v>
-      </c>
-      <c r="G27">
-        <v>-0.07326122521137132</v>
-      </c>
-      <c r="H27">
-        <v>0.023890855297001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28">
-        <v>0.01038815281852187</v>
-      </c>
-      <c r="D28">
-        <v>0.02765466420770451</v>
-      </c>
-      <c r="E28">
-        <v>0.3756383639483051</v>
-      </c>
-      <c r="F28">
-        <v>0.7072757823814447</v>
-      </c>
-      <c r="G28">
-        <v>-0.04388822201913341</v>
-      </c>
-      <c r="H28">
-        <v>0.06466452765617715</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29">
-        <v>-0.0007435822649333249</v>
-      </c>
-      <c r="D29">
-        <v>0.03123481829690567</v>
-      </c>
-      <c r="E29">
-        <v>-0.02380619787396007</v>
-      </c>
-      <c r="F29">
-        <v>0.9810125627291334</v>
-      </c>
-      <c r="G29">
-        <v>-0.06204653981075652</v>
-      </c>
-      <c r="H29">
-        <v>0.06055937528088987</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30">
-        <v>0.2015204414078897</v>
-      </c>
-      <c r="D30">
-        <v>0.1054191614967459</v>
-      </c>
-      <c r="E30">
-        <v>1.91161112028111</v>
-      </c>
-      <c r="F30">
-        <v>0.05624880248664894</v>
-      </c>
-      <c r="G30">
-        <v>-0.005380278177583742</v>
-      </c>
-      <c r="H30">
-        <v>0.4084211609933632</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31">
-        <v>-0.0002348826233598996</v>
-      </c>
-      <c r="D31">
-        <v>0.0003968188840776608</v>
-      </c>
-      <c r="E31">
-        <v>-0.5919139254318629</v>
-      </c>
-      <c r="F31">
-        <v>0.554059404183413</v>
-      </c>
-      <c r="G31">
-        <v>-0.001013698461914135</v>
-      </c>
-      <c r="H31">
-        <v>0.0005439332151943361</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32">
-        <v>0.000470513975780205</v>
-      </c>
-      <c r="D32">
-        <v>0.0006670509155302993</v>
-      </c>
-      <c r="E32">
-        <v>0.7053644104605579</v>
-      </c>
-      <c r="F32">
-        <v>0.4807690936165021</v>
-      </c>
-      <c r="G32">
-        <v>-0.0008386722524523918</v>
-      </c>
-      <c r="H32">
-        <v>0.001779700204012802</v>
+        <v>0.1038742195522266</v>
       </c>
     </row>
   </sheetData>

--- a/result_regression.xlsx
+++ b/result_regression.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>CONTENT</t>
   </si>
@@ -101,6 +101,33 @@
   </si>
   <si>
     <t>ETHNICITY[T.Unknown]</t>
+  </si>
+  <si>
+    <t>EXEMPT[T.Maybe]</t>
+  </si>
+  <si>
+    <t>PROMOTION[T.Yes]</t>
+  </si>
+  <si>
+    <t>PERFORMANCE[T.2]</t>
+  </si>
+  <si>
+    <t>PERFORMANCE[T.3]</t>
+  </si>
+  <si>
+    <t>PERFORMANCE[T.4]</t>
+  </si>
+  <si>
+    <t>PERFORMANCE[T.5]</t>
+  </si>
+  <si>
+    <t>High_Potential[T.Yes]</t>
+  </si>
+  <si>
+    <t>Engagement_Score</t>
+  </si>
+  <si>
+    <t>TENURE</t>
   </si>
 </sst>
 </file>
@@ -458,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,22 +522,22 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>11.55988084655664</v>
+        <v>11.57389804402606</v>
       </c>
       <c r="D2">
-        <v>0.01890310900412871</v>
+        <v>0.04507965374644378</v>
       </c>
       <c r="E2">
-        <v>611.5333114797041</v>
+        <v>256.7432773358224</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>11.52278148631601</v>
+        <v>11.48542254615283</v>
       </c>
       <c r="H2">
-        <v>11.59698020679727</v>
+        <v>11.66237354189929</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -521,22 +548,22 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.1080968759434591</v>
+        <v>-0.1066556259052317</v>
       </c>
       <c r="D3">
-        <v>0.0120309862464822</v>
+        <v>0.01213666411511897</v>
       </c>
       <c r="E3">
-        <v>-8.984872372792049</v>
+        <v>-8.787886431854686</v>
       </c>
       <c r="F3">
-        <v>1.495658553780395E-18</v>
+        <v>7.811888321013099E-18</v>
       </c>
       <c r="G3">
-        <v>-0.1317089649765829</v>
+        <v>-0.1304756269670199</v>
       </c>
       <c r="H3">
-        <v>-0.08448478691033529</v>
+        <v>-0.08283562484344349</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -547,22 +574,22 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.04122982919626061</v>
+        <v>-0.02826705140175997</v>
       </c>
       <c r="D4">
-        <v>0.03321795624121423</v>
+        <v>0.03589215816579992</v>
       </c>
       <c r="E4">
-        <v>-1.241191026228937</v>
+        <v>-0.7875550773844082</v>
       </c>
       <c r="F4">
-        <v>0.2148589547473078</v>
+        <v>0.4311678685797878</v>
       </c>
       <c r="G4">
-        <v>-0.1064235983683681</v>
+        <v>-0.09871072830587629</v>
       </c>
       <c r="H4">
-        <v>0.02396393997584684</v>
+        <v>0.04217662550235635</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -573,22 +600,22 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.06106508713268161</v>
+        <v>-0.06250175781972461</v>
       </c>
       <c r="D5">
-        <v>0.04943456552974644</v>
+        <v>0.0492779942626755</v>
       </c>
       <c r="E5">
-        <v>-1.235271039166647</v>
+        <v>-1.26835027997609</v>
       </c>
       <c r="F5">
-        <v>0.2170523671886194</v>
+        <v>0.2050064258799572</v>
       </c>
       <c r="G5">
-        <v>-0.1580856753611374</v>
+        <v>-0.1592171208326538</v>
       </c>
       <c r="H5">
-        <v>0.03595550109577421</v>
+        <v>0.03421360519320461</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -599,22 +626,22 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>-0.4625840441908732</v>
+        <v>-0.4660209343477763</v>
       </c>
       <c r="D6">
-        <v>0.01779773835485147</v>
+        <v>0.01793134540129178</v>
       </c>
       <c r="E6">
-        <v>-25.99117005587274</v>
+        <v>-25.98917838670399</v>
       </c>
       <c r="F6">
-        <v>1.59342443378899E-111</v>
+        <v>4.172776093639682E-111</v>
       </c>
       <c r="G6">
-        <v>-0.4975139970653411</v>
+        <v>-0.501213855767261</v>
       </c>
       <c r="H6">
-        <v>-0.4276540913164052</v>
+        <v>-0.4308280129282916</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -625,22 +652,22 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>-0.175854353566714</v>
+        <v>-0.1775419995451727</v>
       </c>
       <c r="D7">
-        <v>0.0175811053473724</v>
+        <v>0.01751723666560902</v>
       </c>
       <c r="E7">
-        <v>-10.00246287660158</v>
+        <v>-10.13527435487212</v>
       </c>
       <c r="F7">
-        <v>2.09442889822871E-22</v>
+        <v>6.484706400076841E-23</v>
       </c>
       <c r="G7">
-        <v>-0.2103591411425677</v>
+        <v>-0.2119221712312795</v>
       </c>
       <c r="H7">
-        <v>-0.1413495659908603</v>
+        <v>-0.1431618278590659</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -651,22 +678,22 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>0.1743723699731504</v>
+        <v>0.1706589622229417</v>
       </c>
       <c r="D8">
-        <v>0.01858204523663447</v>
+        <v>0.01869542818822975</v>
       </c>
       <c r="E8">
-        <v>9.383916988285854</v>
+        <v>9.128379436122517</v>
       </c>
       <c r="F8">
-        <v>5.04554026249633E-20</v>
+        <v>4.607782566532904E-19</v>
       </c>
       <c r="G8">
-        <v>0.1379031314954456</v>
+        <v>0.133966415154801</v>
       </c>
       <c r="H8">
-        <v>0.2108416084508553</v>
+        <v>0.2073515092910824</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -677,22 +704,22 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>0.3479432848451341</v>
+        <v>0.3460848794459466</v>
       </c>
       <c r="D9">
-        <v>0.01857810753273208</v>
+        <v>0.01892640076844182</v>
       </c>
       <c r="E9">
-        <v>18.72867213369853</v>
+        <v>18.28582643262072</v>
       </c>
       <c r="F9">
-        <v>2.457771592784569E-66</v>
+        <v>1.303828311396349E-63</v>
       </c>
       <c r="G9">
-        <v>0.3114817745297948</v>
+        <v>0.308939014476469</v>
       </c>
       <c r="H9">
-        <v>0.3844047951604735</v>
+        <v>0.3832307444154241</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -703,22 +730,22 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>-0.005660190201221216</v>
+        <v>-0.004446719843545416</v>
       </c>
       <c r="D10">
-        <v>0.01807752178348518</v>
+        <v>0.01811572442891308</v>
       </c>
       <c r="E10">
-        <v>-0.3131065346795552</v>
+        <v>-0.245461883735014</v>
       </c>
       <c r="F10">
-        <v>0.7542723478138738</v>
+        <v>0.8061557270286634</v>
       </c>
       <c r="G10">
-        <v>-0.04113924778676992</v>
+        <v>-0.04000151241576631</v>
       </c>
       <c r="H10">
-        <v>0.02981886738432749</v>
+        <v>0.03110807272867547</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -729,22 +756,22 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>0.006022726429373071</v>
+        <v>0.007302827488936847</v>
       </c>
       <c r="D11">
-        <v>0.01834951910904412</v>
+        <v>0.01841243524636105</v>
       </c>
       <c r="E11">
-        <v>0.328222575947758</v>
+        <v>0.396624747961036</v>
       </c>
       <c r="F11">
-        <v>0.742819809353062</v>
+        <v>0.691739817542135</v>
       </c>
       <c r="G11">
-        <v>-0.02999015481254856</v>
+        <v>-0.02883430401263204</v>
       </c>
       <c r="H11">
-        <v>0.0420356076712947</v>
+        <v>0.04343995899050573</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -755,22 +782,22 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>0.04186336955492423</v>
+        <v>0.04544613130721653</v>
       </c>
       <c r="D12">
-        <v>0.01815270863434669</v>
+        <v>0.01825091650664581</v>
       </c>
       <c r="E12">
-        <v>2.306177573726637</v>
+        <v>2.490073925365226</v>
       </c>
       <c r="F12">
-        <v>0.02132740940898969</v>
+        <v>0.01295415186710033</v>
       </c>
       <c r="G12">
-        <v>0.006236749784506314</v>
+        <v>0.009626004257202246</v>
       </c>
       <c r="H12">
-        <v>0.07748998932534215</v>
+        <v>0.08126625835723081</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -781,22 +808,22 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>0.01796305835512824</v>
+        <v>0.01979753703663528</v>
       </c>
       <c r="D13">
-        <v>0.0176962145193594</v>
+        <v>0.01780850833969509</v>
       </c>
       <c r="E13">
-        <v>1.015079147886511</v>
+        <v>1.11168979787637</v>
       </c>
       <c r="F13">
-        <v>0.3103412066931863</v>
+        <v>0.2665734537152775</v>
       </c>
       <c r="G13">
-        <v>-0.01676764320332026</v>
+        <v>-0.01515429845430206</v>
       </c>
       <c r="H13">
-        <v>0.05269375991357673</v>
+        <v>0.05474937252757262</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -807,22 +834,22 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>0.05017483233691838</v>
+        <v>-0.08713166264558293</v>
       </c>
       <c r="D14">
-        <v>0.03018793515249205</v>
+        <v>0.07123053340578861</v>
       </c>
       <c r="E14">
-        <v>1.66208228828716</v>
+        <v>-1.223234734874274</v>
       </c>
       <c r="F14">
-        <v>0.09684488708426305</v>
+        <v>0.2215666568452722</v>
       </c>
       <c r="G14">
-        <v>-0.00907219845037293</v>
+        <v>-0.2269321354331576</v>
       </c>
       <c r="H14">
-        <v>0.1094218631242097</v>
+        <v>0.05266881014199172</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -833,22 +860,22 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>0.03071645303313258</v>
+        <v>-0.02319768389348405</v>
       </c>
       <c r="D15">
-        <v>0.03635621941257384</v>
+        <v>0.04596432952298019</v>
       </c>
       <c r="E15">
-        <v>0.8448747842716909</v>
+        <v>-0.5046888344555577</v>
       </c>
       <c r="F15">
-        <v>0.3984055395489106</v>
+        <v>0.6139030416936393</v>
       </c>
       <c r="G15">
-        <v>-0.04063649111377657</v>
+        <v>-0.1134094890202207</v>
       </c>
       <c r="H15">
-        <v>0.1020693971800417</v>
+        <v>0.06701412123325258</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -859,22 +886,22 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>0.06440684942402061</v>
+        <v>-0.01340993042911374</v>
       </c>
       <c r="D16">
-        <v>0.01819784691219105</v>
+        <v>0.04340871234634348</v>
       </c>
       <c r="E16">
-        <v>3.539256579901953</v>
+        <v>-0.3089225573456414</v>
       </c>
       <c r="F16">
-        <v>0.0004218223942470434</v>
+        <v>0.7574531453868714</v>
       </c>
       <c r="G16">
-        <v>0.02869164098652026</v>
+        <v>-0.09860595829748685</v>
       </c>
       <c r="H16">
-        <v>0.100122057861521</v>
+        <v>0.07178609743925936</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -885,22 +912,22 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>0.001301600772193129</v>
+        <v>0.001315621099709601</v>
       </c>
       <c r="D17">
-        <v>0.01781790544950959</v>
+        <v>0.0213845837986547</v>
       </c>
       <c r="E17">
-        <v>0.07305015597267936</v>
+        <v>0.06152194085686936</v>
       </c>
       <c r="F17">
-        <v>0.9417824546513855</v>
+        <v>0.9509574319206825</v>
       </c>
       <c r="G17">
-        <v>-0.03366793216868423</v>
+        <v>-0.04065479218340202</v>
       </c>
       <c r="H17">
-        <v>0.03627113371307049</v>
+        <v>0.04328603438282122</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -911,22 +938,22 @@
         <v>23</v>
       </c>
       <c r="C18">
-        <v>0.01945837930377126</v>
+        <v>-0.0639339787520963</v>
       </c>
       <c r="D18">
-        <v>0.04707599596146476</v>
+        <v>0.07532239394686681</v>
       </c>
       <c r="E18">
-        <v>0.4133397266772519</v>
+        <v>-0.8488043913898434</v>
       </c>
       <c r="F18">
-        <v>0.6794563009898246</v>
+        <v>0.3962196738827167</v>
       </c>
       <c r="G18">
-        <v>-0.07293326550341124</v>
+        <v>-0.2117653339558493</v>
       </c>
       <c r="H18">
-        <v>0.1118500241109538</v>
+        <v>0.08389737645165671</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -937,22 +964,22 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>-0.2335495638357177</v>
+        <v>-0.3010573496734971</v>
       </c>
       <c r="D19">
-        <v>0.1879029156048122</v>
+        <v>0.2013789319405021</v>
       </c>
       <c r="E19">
-        <v>-1.242926769305204</v>
+        <v>-1.494979374319282</v>
       </c>
       <c r="F19">
-        <v>0.2142188894734471</v>
+        <v>0.135276297813438</v>
       </c>
       <c r="G19">
-        <v>-0.6023290040201548</v>
+        <v>-0.6962933327365012</v>
       </c>
       <c r="H19">
-        <v>0.1352298763487195</v>
+        <v>0.09417863338950694</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -963,22 +990,22 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>-0.05555256826084561</v>
+        <v>-0.06427308807355728</v>
       </c>
       <c r="D20">
-        <v>0.0218456843106389</v>
+        <v>0.02227053549889732</v>
       </c>
       <c r="E20">
-        <v>-2.542953906634611</v>
+        <v>-2.88601448657306</v>
       </c>
       <c r="F20">
-        <v>0.0111585719945238</v>
+        <v>0.003996397776674821</v>
       </c>
       <c r="G20">
-        <v>-0.09842704524590115</v>
+        <v>-0.1079823127994428</v>
       </c>
       <c r="H20">
-        <v>-0.01267809127579006</v>
+        <v>-0.02056386334767175</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -989,22 +1016,22 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>-0.06032822218108549</v>
+        <v>-0.06254012411990473</v>
       </c>
       <c r="D21">
-        <v>0.0211230127948529</v>
+        <v>0.02167671692356911</v>
       </c>
       <c r="E21">
-        <v>-2.856042495783833</v>
+        <v>-2.885128976884171</v>
       </c>
       <c r="F21">
-        <v>0.004388391755088156</v>
+        <v>0.00400754966092007</v>
       </c>
       <c r="G21">
-        <v>-0.10178437951862</v>
+        <v>-0.1050838919326993</v>
       </c>
       <c r="H21">
-        <v>-0.01887206484355103</v>
+        <v>-0.0199963563071101</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1015,22 +1042,22 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>0.004388556155443771</v>
+        <v>0.0001413464189845889</v>
       </c>
       <c r="D22">
-        <v>0.01749745943910714</v>
+        <v>0.01810643135999771</v>
       </c>
       <c r="E22">
-        <v>0.2508110489249238</v>
+        <v>0.007806420612339082</v>
       </c>
       <c r="F22">
-        <v>0.8020175098606849</v>
+        <v>0.9937732000825565</v>
       </c>
       <c r="G22">
-        <v>-0.02995206743644782</v>
+        <v>-0.03539520712895979</v>
       </c>
       <c r="H22">
-        <v>0.03872917974733536</v>
+        <v>0.03567789996692897</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1041,22 +1068,256 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>0.03869791258332594</v>
+        <v>0.03256870856497427</v>
       </c>
       <c r="D23">
-        <v>0.03320905878507133</v>
+        <v>0.03438752773864176</v>
       </c>
       <c r="E23">
-        <v>1.165281823666802</v>
+        <v>0.9471081728383848</v>
       </c>
       <c r="F23">
-        <v>0.2442140230175593</v>
+        <v>0.3438421868425988</v>
       </c>
       <c r="G23">
-        <v>-0.02647839438557471</v>
+        <v>-0.03492190825339255</v>
       </c>
       <c r="H23">
-        <v>0.1038742195522266</v>
+        <v>0.1000593253833411</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24">
+        <v>-0.4411317080467954</v>
+      </c>
+      <c r="D24">
+        <v>0.2013572825008116</v>
+      </c>
+      <c r="E24">
+        <v>-2.190790929277749</v>
+      </c>
+      <c r="F24">
+        <v>0.02872707582616717</v>
+      </c>
+      <c r="G24">
+        <v>-0.836325200877597</v>
+      </c>
+      <c r="H24">
+        <v>-0.04593821521599367</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>0.08476530763985252</v>
+      </c>
+      <c r="D25">
+        <v>0.04326005483653547</v>
+      </c>
+      <c r="E25">
+        <v>1.959435972981329</v>
+      </c>
+      <c r="F25">
+        <v>0.05037531975362387</v>
+      </c>
+      <c r="G25">
+        <v>-0.0001389578457206553</v>
+      </c>
+      <c r="H25">
+        <v>0.1696695731254257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26">
+        <v>0.006238747218462036</v>
+      </c>
+      <c r="D26">
+        <v>0.02007691102391133</v>
+      </c>
+      <c r="E26">
+        <v>0.3107423851722893</v>
+      </c>
+      <c r="F26">
+        <v>0.7560696430307267</v>
+      </c>
+      <c r="G26">
+        <v>-0.03316516454599458</v>
+      </c>
+      <c r="H26">
+        <v>0.04564265898291865</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27">
+        <v>-0.02468518495718516</v>
+      </c>
+      <c r="D27">
+        <v>0.02475025433786852</v>
+      </c>
+      <c r="E27">
+        <v>-0.9973709611305368</v>
+      </c>
+      <c r="F27">
+        <v>0.3188570977865191</v>
+      </c>
+      <c r="G27">
+        <v>-0.07326122521137132</v>
+      </c>
+      <c r="H27">
+        <v>0.023890855297001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28">
+        <v>0.01038815281852187</v>
+      </c>
+      <c r="D28">
+        <v>0.02765466420770451</v>
+      </c>
+      <c r="E28">
+        <v>0.3756383639483051</v>
+      </c>
+      <c r="F28">
+        <v>0.7072757823814447</v>
+      </c>
+      <c r="G28">
+        <v>-0.04388822201913341</v>
+      </c>
+      <c r="H28">
+        <v>0.06466452765617715</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29">
+        <v>-0.0007435822649333249</v>
+      </c>
+      <c r="D29">
+        <v>0.03123481829690567</v>
+      </c>
+      <c r="E29">
+        <v>-0.02380619787396007</v>
+      </c>
+      <c r="F29">
+        <v>0.9810125627291334</v>
+      </c>
+      <c r="G29">
+        <v>-0.06204653981075652</v>
+      </c>
+      <c r="H29">
+        <v>0.06055937528088987</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30">
+        <v>0.2015204414078897</v>
+      </c>
+      <c r="D30">
+        <v>0.1054191614967459</v>
+      </c>
+      <c r="E30">
+        <v>1.91161112028111</v>
+      </c>
+      <c r="F30">
+        <v>0.05624880248664894</v>
+      </c>
+      <c r="G30">
+        <v>-0.005380278177583742</v>
+      </c>
+      <c r="H30">
+        <v>0.4084211609933632</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31">
+        <v>-0.0002348826233598996</v>
+      </c>
+      <c r="D31">
+        <v>0.0003968188840776608</v>
+      </c>
+      <c r="E31">
+        <v>-0.5919139254318629</v>
+      </c>
+      <c r="F31">
+        <v>0.554059404183413</v>
+      </c>
+      <c r="G31">
+        <v>-0.001013698461914135</v>
+      </c>
+      <c r="H31">
+        <v>0.0005439332151943361</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32">
+        <v>0.000470513975780205</v>
+      </c>
+      <c r="D32">
+        <v>0.0006670509155302993</v>
+      </c>
+      <c r="E32">
+        <v>0.7053644104605579</v>
+      </c>
+      <c r="F32">
+        <v>0.4807690936165021</v>
+      </c>
+      <c r="G32">
+        <v>-0.0008386722524523918</v>
+      </c>
+      <c r="H32">
+        <v>0.001779700204012802</v>
       </c>
     </row>
   </sheetData>
